--- a/Cache_User_Simulations/ResultsCharts.xlsx
+++ b/Cache_User_Simulations/ResultsCharts.xlsx
@@ -525,11 +525,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2079594648"/>
-        <c:axId val="2111435848"/>
+        <c:axId val="2088494232"/>
+        <c:axId val="2088503224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2079594648"/>
+        <c:axId val="2088494232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -588,7 +588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111435848"/>
+        <c:crossAx val="2088503224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -596,7 +596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111435848"/>
+        <c:axId val="2088503224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,7 +652,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2079594648"/>
+        <c:crossAx val="2088494232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Cache_User_Simulations/ResultsCharts.xlsx
+++ b/Cache_User_Simulations/ResultsCharts.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,28 +20,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Connections</t>
   </si>
   <si>
-    <t>Replication</t>
+    <t>Twin Code</t>
   </si>
   <si>
-    <t>Fountain (Genie Bound)</t>
+    <t>USER PERFORMANCE</t>
   </si>
   <si>
-    <t>MDS</t>
+    <t>CACHE POPULATION</t>
   </si>
   <si>
-    <t>Twin Code</t>
+    <t>MDS [MDS(8,4)]</t>
+  </si>
+  <si>
+    <t>Replication [MDS(4,4)]</t>
+  </si>
+  <si>
+    <t>Fountain [MDS(∞,4)</t>
+  </si>
+  <si>
+    <t>Num_Blocks</t>
+  </si>
+  <si>
+    <t>Num_Simulations</t>
+  </si>
+  <si>
+    <t>Num_Connections</t>
+  </si>
+  <si>
+    <t>Varied</t>
+  </si>
+  <si>
+    <t>Num_Codes</t>
+  </si>
+  <si>
+    <t>User Download Time</t>
+  </si>
+  <si>
+    <t>User Download Speed</t>
+  </si>
+  <si>
+    <t>User Error Rate</t>
+  </si>
+  <si>
+    <t>MDS(n*8,8)</t>
+  </si>
+  <si>
+    <t>Cache Error Rate</t>
+  </si>
+  <si>
+    <t>Cache Population Time</t>
+  </si>
+  <si>
+    <t>Cache Population Speed</t>
+  </si>
+  <si>
+    <t>Twin(n*8,8)</t>
+  </si>
+  <si>
+    <t>INFORMATION ABOUT SIMULATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,8 +131,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="206"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,8 +156,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -119,25 +186,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="52">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -202,11 +415,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Replication</c:v>
+                  <c:v>Replication [MDS(4,4)]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -223,7 +436,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -250,7 +463,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -282,11 +495,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fountain (Genie Bound)</c:v>
+                  <c:v>Fountain [MDS(∞,4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -301,7 +514,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -328,7 +541,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -360,11 +573,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MDS</c:v>
+                  <c:v>MDS [MDS(8,4)]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -381,7 +594,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -408,7 +621,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:f>Sheet1!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -440,7 +653,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -461,7 +674,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -488,7 +701,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:f>Sheet1!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -525,11 +738,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2088494232"/>
-        <c:axId val="2088503224"/>
+        <c:axId val="2033192264"/>
+        <c:axId val="2067131480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2088494232"/>
+        <c:axId val="2033192264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -588,7 +801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088503224"/>
+        <c:crossAx val="2067131480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -596,7 +809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088503224"/>
+        <c:axId val="2067131480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,9 +865,2096 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088494232"/>
+        <c:crossAx val="2033192264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Cache</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t> Population Time Based on Connectivity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0747548480214928"/>
+          <c:y val="0.105744631695052"/>
+          <c:w val="0.70539701876888"/>
+          <c:h val="0.786089460683018"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Replication [MDS(4,4)]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cmpd="sng"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="28575" cmpd="sng"/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.86500983891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.621928425634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.444318916576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.326350295951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.249248946747</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20133037666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fountain [MDS(∞,4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cmpd="sng"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="28575" cmpd="sng"/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.49863282211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.970949403977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.847811902737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.795024482542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.766366505345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.748444809454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MDS [MDS(8,4)]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cmpd="sng"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="28575" cmpd="sng"/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.16009501475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.848019561014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.588916634828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.437098274423</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.349348822509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29019739357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Twin Code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cmpd="sng"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="28575" cmpd="sng"/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.00217952064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.735821852904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.431692165562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.281235960943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.215810617075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.179944345293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2067206312"/>
+        <c:axId val="2067213832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2067206312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t> of Connections as a Multiple Data Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Times New Roman"/>
+                  <a:cs typeface="Times New Roman"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067213832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2067213832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Cache</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t> Population Time (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Times New Roman"/>
+                  <a:cs typeface="Times New Roman"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067206312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.802489430756639"/>
+          <c:y val="0.386875150689665"/>
+          <c:w val="0.185979964845592"/>
+          <c:h val="0.163134545365852"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Cache Population vs. User Download with Varying</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t> MDS (n,8); Conn=24; Sim=10000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0729470125057897"/>
+          <c:y val="0.0729221112776452"/>
+          <c:w val="0.820191199629458"/>
+          <c:h val="0.841394242609754"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MDS(n,8)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.30002821279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94335907393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.901269708632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.885190980208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.877619943422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.872996992904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.869805242896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.867400873837</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.866049125272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.864330049904</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.864141165183</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.862421201066</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.861335815637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.859839168523</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.861099496402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.859245482461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.860370263976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.857160997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.858612469061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.859111998025</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.859134467115</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.857668023821</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.857377179215</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.858937953812</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.857998151868</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.857353715356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.856152171012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.856194118954</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.856982199179</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.857001230819</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.856375986298</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.857313441705</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.855596234916</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.856317468582</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.856733033908</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.856690848319</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.855270572676</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.854389994104</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.855659675853</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.85520051021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.855168264232</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.855103191836</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.856193167351</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.855628186462</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.855104799607</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.855816106828</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.855363320143</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.853573669645</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.854342957241</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.854004573307</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.854584003671</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.853788288542</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.854700268446</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.853961988281</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.853836162207</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.855264764294</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.854141038028</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.855309653312</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.854512393754</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.854410063379</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.854066115542</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.854194759598</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.855424894385</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.853371631414</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.85514051481</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.854517363655</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.854802115475</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.853552004435</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.855313604832</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.854011435554</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.854021426349</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.854738919278</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.854122219866</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.854518136827</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.852567884955</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.854508435935</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.855301140704</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.853316929899</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.854750469469</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.852532805077</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.854025442263</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.85392828904</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.853734256533</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.852873222067</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.852785563378</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.855366525933</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.85384328195</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.853623759044</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.85435474882</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.853975865769</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.854097438294</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.853573711898</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.854111208428</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.854444554929</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.853153209737</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.854220199788</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.854384759058</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.853567687448</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.853879601727</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.853222933679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.457630530372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.606350619663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.677743665994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.723467095429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.749596060481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.768946658224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.779643522814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.790795649297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.796339770289</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.804199127918</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.806809962139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.811489370179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.814395368735</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.817759049827</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.819575849805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.822192651103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.825494471187</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82709911979</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.827324402052</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.829678679392</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.829566180862</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.831691608841</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.832552557408</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.833769095748</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.834465458669</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.834239421882</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.835638967648</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.835282133488</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.836725267893</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.837210163522</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.836158956626</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.837784454643</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.83935073945</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.839730443999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.838199356354</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.840660320101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.841004394795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.841053861951</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.841080255249</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.840493987474</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.841817138778</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.841653110611</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.841763429819</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.841687885547</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.842600929227</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.842885639817</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.843465311098</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.843784751468</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.842800993251</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.841256023182</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.842800161094</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.843469292658</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.844686983041</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.843121025774</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.843985170448</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.845159357869</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.844005825232</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.843425467342</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.846591330531</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.844937313041</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.84338006848</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.844351408877</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.846326061607</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.845865039592</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.845245212679</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.845190497314</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.844856126185</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.847443727177</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.847051572422</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.845506920867</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.846066197441</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.845560816334</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.846043175525</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.847439427098</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.847050408929</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.846223847683</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.846857873899</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.846909342381</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.846263388174</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.847398527217</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.846762499582</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.847090182937</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.846554322569</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.848944367675</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.846706647246</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.847751997987</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.847650603288</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.846921420334</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.847354325717</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.847491125669</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.847472743201</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.84778329608</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.848315425548</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.848353468025</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.849260420607</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.848209892295</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.847354027655</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.848839885978</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.846897409503</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.852350508212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Twin(k,8)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng"/>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng"/>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$2:$L$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.51865478587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.24897868778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.15071906415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.11264835069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0954645692</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.08178006277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.07236365154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.06753129958</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.06169384808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.05536102305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05284149798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.05229734202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.04878871252</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.04819062081</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.04800881225</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.04570813929</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.04403383727</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.04387199855</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0434702147</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.04342932978</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.04250135144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.04176157674</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.03943947731</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.04101737041</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.04020694866</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.03887284949</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0416272557</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.03794761773</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.03956121788</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.04014028557</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.03705321888</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.03742574836</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.03824513975</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.03693711671</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.03857667419</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.03836347683</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.03641163031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.03619620332</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.03425287543</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.03388455331</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.03548804711</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0356195639</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.03497320382</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.03483229107</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.03584755801</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.03430964372</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.03496157931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.03530905931</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.03553445356</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.03540648092</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.03321666181</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0335115287</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.03516389884</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.03501266602</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.03380428239</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.03306192041</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.03467420546</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.03426884801</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.03412191974</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.03405268072</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.03629103963</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.03183362024</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.03525670154</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.03383125961</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.03108681857</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.03648025541</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.0320960037</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.03472705756</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.03540939571</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.03370006487</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.03514181016</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.03331787628</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.03197732251</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.03177634642</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.03321729498</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.03266947596</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.03655733491</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0330184047</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.03391941296</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.03535606183</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.03140612619</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.03253832083</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.03298241283</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.03299472644</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.03216563909</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.03483567566</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.03440277142</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.03194323332</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.03206473467</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.03207770201</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.03261065777</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.03459974062</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.03140484596</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0322490059</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.03205631116</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.0338662835</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.03113573809</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.03200650793</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.02974523555</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.028492917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$2:$M$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.640493425466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.377264076435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.270288545075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23212220227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.218142503581</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.208883830917</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20217014548</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.196216788216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.195660671342</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.193813098071</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.191071395857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1868423054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.189122877059</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.188366405512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.188326773396</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.187159730629</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.183137543052</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18537537097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.180926430129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.184818885979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.179117082595</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.180553930326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.182910655476</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.181489456047</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.180496180481</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.179601783556</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.178098931122</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.179984325281</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.180064803798</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.180285859151</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.180187848837</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.178187903269</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.182458382376</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.178950646869</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.178884167428</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.177176632591</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.177134534372</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.180229239299</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.17728287242</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.179638721961</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.175455516766</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.177506424073</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.177825263681</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.178970344378</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.175769503304</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.177668625428</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.175914898606</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.175931072813</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.176674292259</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.177821036326</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.175658725351</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.17870928841</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.176796022812</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.174853784599</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.177202354217</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.175229288638</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.178770950337</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.176951445538</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.173246280117</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.175633992565</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.178793740123</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.177484789203</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.177586144718</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.17601933562</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.177699120177</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.177641517443</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.178543857522</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.174225377495</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.17586208941</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.176225264232</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.177629680655</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.175836515164</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.173467574551</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.177299373768</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.174773097097</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.174336401958</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.179025851277</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.176257489786</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.177874627266</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.174760802157</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.177771848302</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.17626849892</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.175581829458</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.173853327183</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.175845298897</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.177008990493</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.176030154378</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.176407468491</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.178014009839</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.177388192416</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.17496529509</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.17781782329</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.173117200105</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.175869089021</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.175636972656</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.175852899173</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.176758725849</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.171941810679</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.177311094362</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.176028944756</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2074757944"/>
+        <c:axId val="2066251832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2074757944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.75"/>
+          <c:min val="0.75"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>User Download Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.437010282538212"/>
+              <c:y val="0.94816800714924"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2066251832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2066251832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Cache</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t> Population Time (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Times New Roman"/>
+                  <a:cs typeface="Times New Roman"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0223529411764706"/>
+              <c:y val="0.359701223674118"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2074757944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -692,15 +2992,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -717,6 +3017,315 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>730249</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>17463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396874</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31648400" y="2692400"/>
+          <a:ext cx="838200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Twin(8,8)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27254200" y="5664200"/>
+          <a:ext cx="838200" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Twin(∞,8)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26593800" y="1485900"/>
+          <a:ext cx="838200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>MDS (8,8)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29629100" y="3949700"/>
+          <a:ext cx="838200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>MDS (∞,8)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1044,10 +3653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="E16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1056,252 +3665,5369 @@
     <col min="2" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.49226817206</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.49815801978</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.5083523326799999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.51263846027</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B4" s="3">
+        <v>1.2793685433499999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.96953192127499999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.1086304490200001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.34663705823</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B5" s="3">
+        <v>1.1222728257500001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.84806031544600002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.92225699629400004</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.11018637993</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="B6" s="3">
+        <v>1.0091133616200001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.79686496457099998</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.84268950995799996</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.95848975659299995</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.92726123169499997</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.76688987610699999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.80134825949800004</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.88288290919800005</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.87659080740299999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.74873085769199998</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.77488398979899997</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.83825368563699998</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.59549999999999992</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.94900000000000007</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.37259999999999999</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.38439999999999996</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.24679999999999999</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.12300000000000001</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2.18E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.1200000000000002E-2</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.86500983891000005</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.49863282211</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.16009501475</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.0021795206399999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.62192842563399997</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.97094940397700003</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.848019561014</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.73582185290400004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.44431891657599998</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.84781190273700002</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.58891663482800005</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.43169216556200002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.32635029595100001</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.79502448254199998</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.43709827442299998</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.28123596094300002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.24924894674699999</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.76636650534499995</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.34934882250900001</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.21581061707499999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.20133037666</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.74844480945400005</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.29019739357000002</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.17994434529299999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="7">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3">
+        <v>32.31</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E27" s="3">
+        <v>73.64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>9.93</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="E28" s="3">
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="7">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="7">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="7">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="7">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A33:E33"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="21.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="11" width="21.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="13" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>1.49226817206</v>
+        <v>29.67</v>
       </c>
       <c r="C2" s="3">
-        <v>1.49815801978</v>
+        <v>4.12</v>
       </c>
       <c r="D2" s="3">
-        <v>1.5083523326799999</v>
+        <v>1.30002821279</v>
       </c>
       <c r="E2" s="3">
-        <v>1.51263846027</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.45763053037200002</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.80838116377500002</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3.1053000425100001</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>77.319999999999993</v>
+      </c>
+      <c r="K2" s="3">
+        <v>17.97</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.5186547858699999</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.64049342546599997</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.68364039924300002</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2.45290105624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3">
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>1.2793685433499999</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>0.96953192127499999</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>1.1086304490200001</v>
+        <v>0.94335907392999996</v>
       </c>
       <c r="E3" s="3">
-        <v>1.34663705823</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.60635061966299997</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.07531666901</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.9211162125200001</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3">
+        <f>I2+1</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.24897868778</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.37726407643499998</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.829613198602</v>
+      </c>
+      <c r="O3" s="3">
+        <v>5.0510516519999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>1.1222728257500001</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>0.84806031544600002</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0.92225699629400004</v>
+        <v>0.90126970863199996</v>
       </c>
       <c r="E4" s="3">
-        <v>1.11018637993</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.67774366599400004</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.1209784748</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.62175165827</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I67" si="1">I3+1</f>
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.15071906415</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.270288545075</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.89257050154200002</v>
+      </c>
+      <c r="O4" s="3">
+        <v>5.8666067844000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>1.0091133616200001</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>0.79686496457099998</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0.84268950995799996</v>
+        <v>0.88519098020800002</v>
       </c>
       <c r="E5" s="3">
-        <v>0.95848975659299995</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.72346709542900001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.1393654554699999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.46821878378</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.11264835069</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.23212220226999999</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.91920192326100003</v>
+      </c>
+      <c r="O5" s="3">
+        <v>6.2227547841300002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>0.92726123169499997</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>0.76688987610699999</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0.80134825949800004</v>
+        <v>0.877619943422</v>
       </c>
       <c r="E6" s="3">
-        <v>0.88288290919800005</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.74959606048100003</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.14869875634</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.393726443</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.0954645692</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.21814250358100001</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.93158388718499996</v>
+      </c>
+      <c r="O6" s="3">
+        <v>6.3406736636299996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>0.87659080740299999</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>0.74873085769199998</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>0.77488398979899997</v>
+        <v>0.87299699290400001</v>
       </c>
       <c r="E7" s="3">
-        <v>0.83825368563699998</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.76894665822399999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.1544321479699999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.3468644297700001</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.0817800627700001</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.208883830917</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.942335281917</v>
+      </c>
+      <c r="O7" s="3">
+        <v>6.4099288149199998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.86980524289600003</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.77964352281399996</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.1582619243100001</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.3229902339499999</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.0723636515399999</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.20217014548000001</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.95013514340500005</v>
+      </c>
+      <c r="O8" s="3">
+        <v>6.4913382690699999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="3">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>90.61</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>59.55</v>
+        <v>0.86740087383700004</v>
       </c>
       <c r="E9" s="3">
-        <v>94.9</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.79079564929699997</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.1612512153400001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.2958693965000001</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.0675312995799999</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.196216788216</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.95357178603199999</v>
+      </c>
+      <c r="O9" s="3">
+        <v>6.5653328361899996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>37.26</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>38.44</v>
+        <v>0.86604912527199995</v>
       </c>
       <c r="E10" s="3">
-        <v>24.68</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.79633977028900005</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.1630550927300001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.2844473642700001</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.06169384808</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.19566067134199999</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.95841164082600006</v>
+      </c>
+      <c r="O10" s="3">
+        <v>6.5723026458599998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>2.1800000000000002</v>
+        <v>0.86433004990399998</v>
       </c>
       <c r="E11" s="3">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.80419912791799997</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.1649214558900001</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.26595032351</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.0553610230499999</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.193813098071</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.96410059690100003</v>
+      </c>
+      <c r="O11" s="3">
+        <v>6.57958374683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="3">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>0.04</v>
+        <v>0.86414116518299999</v>
       </c>
       <c r="E12" s="3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.80680996213900003</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.16544882107</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.2609319054599999</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.05284149798</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.191071395857</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.96596288775200001</v>
+      </c>
+      <c r="O12" s="3">
+        <v>6.6292849161799996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="3">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>1.1599999999999999</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>0.86242120106599995</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.81148937017900002</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.1675357100099999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.25183915143</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.0522973420199999</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.18684230539999999</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.96617279618399998</v>
+      </c>
+      <c r="O13" s="3">
+        <v>6.6584944108300004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>0.86133581563700001</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>0.81439536873499996</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.1687633723999999</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.2451757805300001</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.0487887125199999</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.18912287705899999</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.96937584298199997</v>
+      </c>
+      <c r="O14" s="3">
+        <v>6.6568517420299997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.85983916852300002</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.81775904982699998</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.1708857872</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.2401851395400001</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1.04819062081</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.18836640551200001</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.96979919765599998</v>
+      </c>
+      <c r="O15" s="3">
+        <v>6.6544276251200003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.86109949640200001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.81957584980499998</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.1692588940999999</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.2366318360799999</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1.04800881225</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.18832677339600001</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.97010094306600003</v>
+      </c>
+      <c r="O16" s="3">
+        <v>6.6627558706599999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.85924548246099997</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.82219265110299999</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.1715781589800001</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.23088137732</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1.0457081392900001</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.18715973062899999</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.97173924355899999</v>
+      </c>
+      <c r="O17" s="3">
+        <v>6.6560355404699996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.86037026397600003</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.82549447118700003</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.1703448829100001</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.22526791624</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="3">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1.04403383727</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.183137543052</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.97308285240100001</v>
+      </c>
+      <c r="O18" s="3">
+        <v>6.7156855521200001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.85716099700000004</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.82709911978999995</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.17439103785</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.2230585379100001</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1.04387199855</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.18537537097000001</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.97354360144999996</v>
+      </c>
+      <c r="O19" s="3">
+        <v>6.6728287501099999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.85861246906099997</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.82732440205199997</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.1723279715199999</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.22151127367</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1.0434702146999999</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.180926430129</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.97380922916299995</v>
+      </c>
+      <c r="O20" s="3">
+        <v>6.7215036403599999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.85911199802500005</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.82967867939200002</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.17166047549</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.2169539112700001</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1.0434293297799999</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.18481888597900001</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.973687502697</v>
+      </c>
+      <c r="O21" s="3">
+        <v>6.7033718633500001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.85913446711499997</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.82956618086199996</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1.1715296693399999</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.2174876700099999</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1.0425013514399999</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.179117082595</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.97490431724899995</v>
+      </c>
+      <c r="O22" s="3">
+        <v>6.7397039209300003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.85766802382100005</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.83169160884100002</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.17373271399</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.21473783813</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="3">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1.0417615767399999</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.18055393032600001</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.97506134804400002</v>
+      </c>
+      <c r="O23" s="3">
+        <v>6.74110928102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.85737717921500001</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.83255255740800005</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.1741912693500001</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.21339993766</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="3">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1.03943947731</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.18291065547599999</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.97735852344200003</v>
+      </c>
+      <c r="O24" s="3">
+        <v>6.6997747147600002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.858937953812</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.83376909574799996</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.1719717520399999</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1.21014771558</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1.0410173704100001</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.18148945604700001</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.97569986560800004</v>
+      </c>
+      <c r="O25" s="3">
+        <v>6.7087601149699996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.85799815186799999</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.83446545866900002</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.1733569085</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1.20937985869</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1.0402069486600001</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.180496180481</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.97647474176100002</v>
+      </c>
+      <c r="O26" s="3">
+        <v>6.72448120514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.85735371535600002</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.83423942188199995</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1.1739421291500001</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.20926363062</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="3">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1.0388728494899999</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.17960178355600001</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.97784132717000005</v>
+      </c>
+      <c r="O27" s="3">
+        <v>6.74182161422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.85615217101200003</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.83563896764800005</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1.1755940005900001</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1.2071778928800001</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="3">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1.0416272556999999</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.17809893112200001</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.97533023837800004</v>
+      </c>
+      <c r="O28" s="3">
+        <v>6.7720582017100002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.85619411895399999</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.83528213348799996</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1.1755334505299999</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1.20804430509</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="3">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1.03794761773</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.179984325281</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.97872086810500003</v>
+      </c>
+      <c r="O29" s="3">
+        <v>6.73586727018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.85698219917899998</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.83672526789299995</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1.17469542911</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1.20599755614</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="3">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1.03956121788</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.18006480379799999</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.976716420975</v>
+      </c>
+      <c r="O30" s="3">
+        <v>6.7365535225000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.85700123081900004</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.83721016352199995</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1.1744605786</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1.2046033084600001</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1.0401402855699999</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.18028585915100001</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.97643999278600002</v>
+      </c>
+      <c r="O31" s="3">
+        <v>6.7500919741400001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.85637598629800005</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.83615895662600004</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1.17537763142</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1.2063294019699999</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="3">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1.0370532188799999</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.18018784883700001</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.97951703193399997</v>
+      </c>
+      <c r="O32" s="3">
+        <v>6.7466477997899998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.85731344170500001</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.837784454643</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.17421282347</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1.2031958464800001</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="3">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1.03742574836</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.178187903269</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.97915381815400004</v>
+      </c>
+      <c r="O33" s="3">
+        <v>6.7580608682400003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.85559623491600001</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.83935073945000005</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1.1761589113399999</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1.20047733253</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="3">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1.0382451397500001</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.18245838237600001</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.97803979772399996</v>
+      </c>
+      <c r="O34" s="3">
+        <v>6.72440742682</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.85631746858199997</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.83973044399899999</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.17534625273</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1.20029045275</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="3">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1.0369371167100001</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.178950646869</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.979770751547</v>
+      </c>
+      <c r="O35" s="3">
+        <v>6.76391238221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.85673303390800004</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.838199356354</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1.1746612646200001</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1.20232785444</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1.03857667419</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.17888416742800001</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0.97776702105500002</v>
+      </c>
+      <c r="O36" s="3">
+        <v>6.7662885808800004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.856690848319</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.840660320101</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1.1748029528199999</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1.19914540932</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="3">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1.0383634768300001</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0.177176632591</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0.97799582701599996</v>
+      </c>
+      <c r="O37" s="3">
+        <v>6.7683674896800001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.85527057267600004</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.841004394795</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1.1765767031300001</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1.1985447602699999</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="3">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1.0364116303099999</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.177134534372</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.97980468733799997</v>
+      </c>
+      <c r="O38" s="3">
+        <v>6.7737720710999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.85438999410399996</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.84105386195099996</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1.1778005679500001</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1.19853721303</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="3">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1.0361962033200001</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0.180229239299</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.98014653421599995</v>
+      </c>
+      <c r="O39" s="3">
+        <v>6.7385163586700001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.85565967585299996</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.84108025524899999</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1.17620711311</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1.19815334269</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="3">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1.03425287543</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.17728287241999999</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.98190125982999998</v>
+      </c>
+      <c r="O40" s="3">
+        <v>6.77170021379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.85520051020999999</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.84049398747399995</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1.1769277608199999</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1.1988849074900001</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1.0338845533100001</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.179638721961</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.982285704619</v>
+      </c>
+      <c r="O41" s="3">
+        <v>6.7463620066300001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.85516826423199999</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.84181713877800002</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1.1770447184299999</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1.1970583688700001</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="3">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1.0354880471100001</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.17545551676599999</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0.98082556731899995</v>
+      </c>
+      <c r="O42" s="3">
+        <v>6.7976543864699996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.85510319183600003</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.84165311061100001</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1.1772354252699999</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1.1970777911199999</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="3">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1.0356195639000001</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0.17750642407299999</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0.98056152646899997</v>
+      </c>
+      <c r="O43" s="3">
+        <v>6.7592023648300001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.85619316735100004</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.84176342981899999</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1.17548613864</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1.1968862257199999</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="3">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1.0349732038199999</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.17782526368099999</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.98096726000500001</v>
+      </c>
+      <c r="O44" s="3">
+        <v>6.7667019774200003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.85562818646200001</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.84168788554700003</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1.1762688160200001</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1.1973493585099999</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="3">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1.0348322910700001</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.178970344378</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.98107880482599996</v>
+      </c>
+      <c r="O45" s="3">
+        <v>6.76860761976</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.85510479960700003</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.84260092922700003</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1.1770830109199999</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1.1952574333299999</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1.0358475580099999</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.17576950330400001</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.98053759745400004</v>
+      </c>
+      <c r="O46" s="3">
+        <v>6.7820648091900004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.85581610682800002</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.84288563981700004</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1.17585950441</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1.1948664339299999</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="3">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1.0343096437199999</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0.17766862542799999</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0.98148409126799996</v>
+      </c>
+      <c r="O47" s="3">
+        <v>6.7715677400900001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.85536332014299998</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.84346531109800005</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1.17660935725</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1.1939879316099999</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="3">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1.03496157931</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0.17591489860599999</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.98129853620899998</v>
+      </c>
+      <c r="O48" s="3">
+        <v>6.7602964243099999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.85357366964500003</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.84378475146800003</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1.1789445707899999</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1.19364783886</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="3">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1.0353090593100001</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0.17593107281299999</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0.98061456872999997</v>
+      </c>
+      <c r="O49" s="3">
+        <v>6.7804912266899997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.85434295724099996</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.842800993251</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1.17789523768</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1.19508455461</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="3">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1.03553445356</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0.176674292259</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.98090022605899996</v>
+      </c>
+      <c r="O50" s="3">
+        <v>6.7443912679100002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.85400457330699997</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.84125602318199999</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1.1784665135400001</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1.1975345963999999</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1.0354064809200001</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0.17782103632599999</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0.98084942836400002</v>
+      </c>
+      <c r="O51" s="3">
+        <v>6.76075442506</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="3">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.85458400367099996</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.84280016109400002</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1.17754964936</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1.1954091063700001</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="3">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1.03321666181</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0.17565872535099999</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0.982783839341</v>
+      </c>
+      <c r="O52" s="3">
+        <v>6.7833014004800001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="3">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.85378828854199995</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.84346929265799997</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1.17872859019</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1.19408360922</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="3">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>1.0335115287000001</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0.17870928841</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0.98277475639300005</v>
+      </c>
+      <c r="O53" s="3">
+        <v>6.7694642954599997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="3">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.854700268446</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.84468698304099998</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1.17730174709</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1.1919963812600001</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="3">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1.03516389884</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0.17679602281199999</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0.98071590875500003</v>
+      </c>
+      <c r="O54" s="3">
+        <v>6.7795247065800002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="3">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.85396198828100001</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.84312102577400005</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1.1783364981</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1.19419547031</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="3">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>1.0350126660200001</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0.174853784599</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0.98102610545400004</v>
+      </c>
+      <c r="O55" s="3">
+        <v>6.7992019003999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.85383616220699998</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.84398517044800003</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1.17866443523</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1.1933731132500001</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="3">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <v>1.03380428239</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0.17720235421700001</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0.98234969428999996</v>
+      </c>
+      <c r="O56" s="3">
+        <v>6.7711925718800003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.855264764294</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.84515935786899998</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1.1766966944099999</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1.1915457628399999</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="3">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1.03306192041</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0.175229288638</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0.98271361613200003</v>
+      </c>
+      <c r="O57" s="3">
+        <v>6.81013048251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.85414103802800001</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.84400582523199996</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1.17824348633</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1.1931558288599999</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="3">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1.03467420546</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0.178770950337</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0.98146526729399997</v>
+      </c>
+      <c r="O58" s="3">
+        <v>6.7694685078700001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="3">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.85530965331200004</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.84342546734199997</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1.1766142472800001</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1.1938906863400001</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="3">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1.03426884801</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0.17695144553799999</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0.98176004376100001</v>
+      </c>
+      <c r="O59" s="3">
+        <v>6.7567921476799997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.85451239375400001</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.846591330531</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1.1777926615100001</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1.18946876295</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="3">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1.03412191974</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0.173246280117</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0.98189195140800001</v>
+      </c>
+      <c r="O60" s="3">
+        <v>6.8146379808999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.85441006337900005</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.84493731304099995</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1.17804877877</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1.1918001410100001</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="3">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>1.0340526807199999</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0.17563399256500001</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0.98190557939800005</v>
+      </c>
+      <c r="O61" s="3">
+        <v>6.8038062696699999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="3">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.85406611554199996</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.84338006848000002</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1.1784124811800001</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1.1939192085300001</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" s="3">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1.03629103963</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0.17879374012300001</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0.97998148296099996</v>
+      </c>
+      <c r="O62" s="3">
+        <v>6.7563987690799996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="3">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.85419475959799995</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.844351408877</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1.1780097215800001</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1.19289699912</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="3">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>1.03183362024</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0.17748478920300001</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0.98407773118899999</v>
+      </c>
+      <c r="O63" s="3">
+        <v>6.76678714046</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="3">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.85542489438500002</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.84632606160699997</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1.17675154397</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1.18966057282</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="3">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1.03525670154</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0.17758614471799999</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0.98084749361400003</v>
+      </c>
+      <c r="O64" s="3">
+        <v>6.7689553871400001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="3">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.85337163141399996</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.84586503959199999</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1.17913344883</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1.19058204504</v>
+      </c>
+      <c r="H65" s="5"/>
+      <c r="I65" s="3">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <v>1.0338312596100001</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0.17601933561999999</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0.98189839669000001</v>
+      </c>
+      <c r="O65" s="3">
+        <v>6.7804623041400003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="3">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.85514051480999997</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0.84524521267899999</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1.1768688014099999</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1.191479513</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="3">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1.03108681857</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0.17769912017699999</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0.984599947837</v>
+      </c>
+      <c r="O66" s="3">
+        <v>6.7485016168599996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="3">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.85451736365499997</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0.84519049731399998</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1.1776523908500001</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1.19113152086</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="3">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0</v>
+      </c>
+      <c r="L67" s="3">
+        <v>1.0364802554100001</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0.177641517443</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0.98009585248700004</v>
+      </c>
+      <c r="O67" s="3">
+        <v>6.7654194576400002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="3">
+        <f t="shared" ref="A68:A100" si="2">A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.85480211547499996</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.84485612618499994</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1.17735423355</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1.1918210902799999</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="3">
+        <f t="shared" ref="I68:I100" si="3">I67+1</f>
+        <v>67</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1.0320960037</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0.178543857522</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0.98356715585800003</v>
+      </c>
+      <c r="O68" s="3">
+        <v>6.7603790746300003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="3">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.85355200443500001</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.84744372717700001</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1.17911163298</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1.1882405458</v>
+      </c>
+      <c r="H69" s="5"/>
+      <c r="I69" s="3">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>1.0347270575600001</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0.174225377495</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0.98151406051300005</v>
+      </c>
+      <c r="O69" s="3">
+        <v>6.79829238607</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="3">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.85531360483200003</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.84705157242200002</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1.1767638641</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1.18906746895</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="3">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>1.0354093957099999</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0.17586208941000001</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0.98027265696300003</v>
+      </c>
+      <c r="O70" s="3">
+        <v>6.7867496552900004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="3">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.85401143555400005</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0.84550692086699997</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1.17835070271</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1.19105197053</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="3">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>1.0337000648700001</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0.176225264232</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0.98208136929800005</v>
+      </c>
+      <c r="O71" s="3">
+        <v>6.7828802084099999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="3">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.85402142634900002</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.84606619744099998</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1.1785106975099999</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1.18995984875</v>
+      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" s="3">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
+        <v>1.0351418101600001</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0.17762968065500001</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0.98071146912999996</v>
+      </c>
+      <c r="O72" s="3">
+        <v>6.7810854455799996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="3">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.85473891927800005</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.84556081633400004</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1.1773626322399999</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1.1903508225499999</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="3">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>1.0333178762799999</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0.17583651516400001</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0.98244822045199998</v>
+      </c>
+      <c r="O73" s="3">
+        <v>6.7747980844200004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="3">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.85412221986600001</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.84604317552499997</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1.17838639001</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1.19004171253</v>
+      </c>
+      <c r="H74" s="5"/>
+      <c r="I74" s="3">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3">
+        <v>1.03197732251</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0.17346757455100001</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0.98380640530899999</v>
+      </c>
+      <c r="O74" s="3">
+        <v>6.8070924957800001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="3">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.85451813682699995</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.84743942709800002</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1.17776576766</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1.1880528534499999</v>
+      </c>
+      <c r="H75" s="5"/>
+      <c r="I75" s="3">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>1.03177634642</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0.17729937376800001</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0.98390231597400002</v>
+      </c>
+      <c r="O75" s="3">
+        <v>6.7715583780199999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.85256788495500002</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0.84705040892899996</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1.1801977240799999</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1.18870175182</v>
+      </c>
+      <c r="H76" s="5"/>
+      <c r="I76" s="3">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1.03321729498</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0.17477309709700001</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0.98265546000600001</v>
+      </c>
+      <c r="O76" s="3">
+        <v>6.7870239906199998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="3">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.85450843593500003</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.84622384768299996</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1.17775708922</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1.1896633141399999</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="I77" s="3">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>1.0326694759599999</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0.17433640195799999</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0.98287410258200003</v>
+      </c>
+      <c r="O77" s="3">
+        <v>6.8059727854999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="3">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.85530114070399998</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.84685787389900002</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1.1768150124100001</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1.1889748708700001</v>
+      </c>
+      <c r="H78" s="5"/>
+      <c r="I78" s="3">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0</v>
+      </c>
+      <c r="L78" s="3">
+        <v>1.0365573349099999</v>
+      </c>
+      <c r="M78" s="3">
+        <v>0.17902585127699999</v>
+      </c>
+      <c r="N78" s="3">
+        <v>0.97960597003299998</v>
+      </c>
+      <c r="O78" s="3">
+        <v>6.7647786273500001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="3">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0.85331692989899999</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.84690934238100002</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1.1792366882800001</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1.18859869152</v>
+      </c>
+      <c r="H79" s="5"/>
+      <c r="I79" s="3">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0</v>
+      </c>
+      <c r="L79" s="3">
+        <v>1.0330184046999999</v>
+      </c>
+      <c r="M79" s="3">
+        <v>0.176257489786</v>
+      </c>
+      <c r="N79" s="3">
+        <v>0.98320086598300005</v>
+      </c>
+      <c r="O79" s="3">
+        <v>6.7665433157299999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="3">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0.85475046946900002</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.84626338817400004</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1.17749622989</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1.1894918698700001</v>
+      </c>
+      <c r="H80" s="5"/>
+      <c r="I80" s="3">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0</v>
+      </c>
+      <c r="L80" s="3">
+        <v>1.03391941296</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0.17787462726600001</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0.98232374110200005</v>
+      </c>
+      <c r="O80" s="3">
+        <v>6.7636646815599999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="3">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.85253280507700002</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.84739852721700004</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1.18027789911</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1.18790904961</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="3">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>1.03535606183</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0.17476080215699999</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0.98068376912199995</v>
+      </c>
+      <c r="O81" s="3">
+        <v>6.7875615703600003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="3">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.85402544226300003</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.84676249958200001</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1.17839682097</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1.1889113017699999</v>
+      </c>
+      <c r="H82" s="5"/>
+      <c r="I82" s="3">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0</v>
+      </c>
+      <c r="L82" s="3">
+        <v>1.03140612619</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0.17777184830199999</v>
+      </c>
+      <c r="N82" s="3">
+        <v>0.98430444542399997</v>
+      </c>
+      <c r="O82" s="3">
+        <v>6.75839788565</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="3">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.85392828903999995</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.847090182937</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1.1784082735200001</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1.1885989272099999</v>
+      </c>
+      <c r="H83" s="5"/>
+      <c r="I83" s="3">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>1.0325383208300001</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0.17626849891999999</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0.98294018099400005</v>
+      </c>
+      <c r="O83" s="3">
+        <v>6.7822978741100002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="3">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.85373425653299995</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.84655432256899998</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1.1788457567899999</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1.1889517303399999</v>
+      </c>
+      <c r="H84" s="5"/>
+      <c r="I84" s="3">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3">
+        <v>1.03298241283</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0.17558182945799999</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0.98324775071500004</v>
+      </c>
+      <c r="O84" s="3">
+        <v>6.7925259170499999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="3">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0.852873222067</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0.84894436767500003</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1.1798278684800001</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1.18568414787</v>
+      </c>
+      <c r="H85" s="5"/>
+      <c r="I85" s="3">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="J85" s="3">
+        <v>0</v>
+      </c>
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3">
+        <v>1.0329947264399999</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0.17385332718300001</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0.98259531637099995</v>
+      </c>
+      <c r="O85" s="3">
+        <v>6.8193106140999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="3">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.85278556337800004</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.84670664724599998</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1.17996022351</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1.18902605701</v>
+      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="3">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="J86" s="3">
+        <v>0</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3">
+        <v>1.03216563909</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0.17584529889700001</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0.98401912961799998</v>
+      </c>
+      <c r="O86" s="3">
+        <v>6.7817788101599996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="3">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0.855366525933</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0.84775199798699996</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1.1765493811200001</v>
+      </c>
+      <c r="G87" s="3">
+        <v>1.1877303909600001</v>
+      </c>
+      <c r="H87" s="5"/>
+      <c r="I87" s="3">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="J87" s="3">
+        <v>0</v>
+      </c>
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3">
+        <v>1.0348356756599999</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0.17700899049300001</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0.98139312808599999</v>
+      </c>
+      <c r="O87" s="3">
+        <v>6.7923605720199998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="3">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.85384328195000003</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0.84765060328800002</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1.17870793775</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1.18749666926</v>
+      </c>
+      <c r="H88" s="5"/>
+      <c r="I88" s="3">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0</v>
+      </c>
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>1.0344027714199999</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0.17603015437799999</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0.98149012624400001</v>
+      </c>
+      <c r="O88" s="3">
+        <v>6.7961770671300004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="3">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.85362375904400001</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.84692142033399997</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1.17895775348</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1.1885679330900001</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="3">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>1.03194323332</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0.176407468491</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0.98389203173899997</v>
+      </c>
+      <c r="O89" s="3">
+        <v>6.7839341585800002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="3">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.85435474881999995</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.84735432571699998</v>
+      </c>
+      <c r="F90" s="3">
+        <v>1.17779719127</v>
+      </c>
+      <c r="G90" s="3">
+        <v>1.1880004550700001</v>
+      </c>
+      <c r="H90" s="5"/>
+      <c r="I90" s="3">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="J90" s="3">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
+      </c>
+      <c r="L90" s="3">
+        <v>1.03206473467</v>
+      </c>
+      <c r="M90" s="3">
+        <v>0.17801400983900001</v>
+      </c>
+      <c r="N90" s="3">
+        <v>0.98398957025199996</v>
+      </c>
+      <c r="O90" s="3">
+        <v>6.7824847462999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="3">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0.85397586576899998</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0.84749112566899998</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1.17823584593</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1.1877643417299999</v>
+      </c>
+      <c r="H91" s="5"/>
+      <c r="I91" s="3">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>1.03207770201</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0.17738819241600001</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0.98359744527000004</v>
+      </c>
+      <c r="O91" s="3">
+        <v>6.7588988002099999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="3">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.85409743829399998</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.84747274320099997</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1.17818137371</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1.1879393843599999</v>
+      </c>
+      <c r="H92" s="5"/>
+      <c r="I92" s="3">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3">
+        <v>1.0326106577700001</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0.17496529509</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0.98327759608599996</v>
+      </c>
+      <c r="O92" s="3">
+        <v>6.7965340687099998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="3">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.85357371189800002</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.84778329608000003</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1.17883461786</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1.1873446486000001</v>
+      </c>
+      <c r="H93" s="5"/>
+      <c r="I93" s="3">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>1.03459974062</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0.17781782329000001</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0.981530573568</v>
+      </c>
+      <c r="O93" s="3">
+        <v>6.7806144212900001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="3">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.85411120842800003</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.84831542554799999</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1.1782224059999999</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1.1864137637300001</v>
+      </c>
+      <c r="H94" s="5"/>
+      <c r="I94" s="3">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>1.03140484596</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0.17311720010500001</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0.98400501788200001</v>
+      </c>
+      <c r="O94" s="3">
+        <v>6.8154298083100002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="3">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0.85444455492899996</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.848353468025</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1.17793257201</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1.1863907546500001</v>
+      </c>
+      <c r="H95" s="5"/>
+      <c r="I95" s="3">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0</v>
+      </c>
+      <c r="L95" s="3">
+        <v>1.0322490059</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0.17586908902100001</v>
+      </c>
+      <c r="N95" s="3">
+        <v>0.98331531996999999</v>
+      </c>
+      <c r="O95" s="3">
+        <v>6.7780003153299999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="3">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.85315320973700004</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.84926042060700002</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1.17947162925</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1.18517736816</v>
+      </c>
+      <c r="H96" s="5"/>
+      <c r="I96" s="3">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>1.0320563111600001</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0.17563697265600001</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0.98381814622200003</v>
+      </c>
+      <c r="O96" s="3">
+        <v>6.7929008237200001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="3">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.85422019978800001</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.84820989229499999</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1.1780763406500001</v>
+      </c>
+      <c r="G97" s="3">
+        <v>1.18685125643</v>
+      </c>
+      <c r="H97" s="5"/>
+      <c r="I97" s="3">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="J97" s="3">
+        <v>0</v>
+      </c>
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3">
+        <v>1.0338662835000001</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0.17585289917300001</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0.98211309887700005</v>
+      </c>
+      <c r="O97" s="3">
+        <v>6.7871961223200001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="3">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0.85438475905800004</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.84735402765500001</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1.17794603341</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1.1877141791000001</v>
+      </c>
+      <c r="H98" s="5"/>
+      <c r="I98" s="3">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="J98" s="3">
+        <v>0</v>
+      </c>
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3">
+        <v>1.0311357380899999</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0.17675872584899999</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0.98431084623300003</v>
+      </c>
+      <c r="O98" s="3">
+        <v>6.76847202147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="3">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0.85356768744800005</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.84883988597799997</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1.17889695394</v>
+      </c>
+      <c r="G99" s="3">
+        <v>1.1859406130000001</v>
+      </c>
+      <c r="H99" s="5"/>
+      <c r="I99" s="3">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3">
+        <v>1.03200650793</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0.171941810679</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0.98388281764600005</v>
+      </c>
+      <c r="O99" s="3">
+        <v>6.8190341034799999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="3">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0.85387960172699995</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.84689740950299996</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1.1785364060100001</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1.1885424873499999</v>
+      </c>
+      <c r="H100" s="5"/>
+      <c r="I100" s="3">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>1.0297452355500001</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0.17731109436199999</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0.98560389909699997</v>
+      </c>
+      <c r="O100" s="3">
+        <v>6.7825880874899998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="10">
+        <f>10000000000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0.85322293367900004</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.85235050821199998</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1.17947629042</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1.18046009828</v>
+      </c>
+      <c r="H101" s="5"/>
+      <c r="I101" s="10">
+        <f>10000000000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>1.0284929169999999</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0.17602894475600001</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0.98722159837199996</v>
+      </c>
+      <c r="O101" s="3">
+        <v>6.7878957620399998</v>
       </c>
     </row>
   </sheetData>

--- a/Cache_User_Simulations/ResultsCharts.xlsx
+++ b/Cache_User_Simulations/ResultsCharts.xlsx
@@ -270,12 +270,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -290,6 +284,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,7 +401,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -738,11 +737,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2033192264"/>
-        <c:axId val="2067131480"/>
+        <c:axId val="2084535512"/>
+        <c:axId val="2084544504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2033192264"/>
+        <c:axId val="2084535512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +780,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -801,7 +799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2067131480"/>
+        <c:crossAx val="2084544504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -809,7 +807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2067131480"/>
+        <c:axId val="2084544504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,7 +843,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -865,14 +862,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2033192264"/>
+        <c:crossAx val="2084535512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -947,7 +943,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1288,11 +1283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2067206312"/>
-        <c:axId val="2067213832"/>
+        <c:axId val="2109139752"/>
+        <c:axId val="2109147320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2067206312"/>
+        <c:axId val="2109139752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1326,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1351,7 +1345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2067213832"/>
+        <c:crossAx val="2109147320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1359,7 +1353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2067213832"/>
+        <c:axId val="2109147320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1393,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1419,7 +1412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2067206312"/>
+        <c:crossAx val="2109139752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1494,14 +1487,14 @@
                 <a:latin typeface="Times New Roman"/>
                 <a:cs typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>Cache Population vs. User Download with Varying</a:t>
+              <a:t>Cache Population vs. User Download</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" baseline="0">
                 <a:latin typeface="Times New Roman"/>
                 <a:cs typeface="Times New Roman"/>
               </a:rPr>
-              <a:t> MDS (n,8); Conn=24; Sim=10000</a:t>
+              <a:t>; Conn=24; Sim=10000</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:latin typeface="Times New Roman"/>
@@ -2817,11 +2810,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2074757944"/>
-        <c:axId val="2066251832"/>
+        <c:axId val="2062391912"/>
+        <c:axId val="2062399656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2074757944"/>
+        <c:axId val="2062391912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.75"/>
@@ -2878,12 +2871,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2066251832"/>
+        <c:crossAx val="2062399656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2066251832"/>
+        <c:axId val="2062399656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2952,7 +2945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2074757944"/>
+        <c:crossAx val="2062391912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3138,7 +3131,7 @@
               <a:latin typeface="Times New Roman"/>
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Twin(8,8)</a:t>
+            <a:t>Twin (8,8)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3199,7 +3192,7 @@
               <a:latin typeface="Times New Roman"/>
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Twin(∞,8)</a:t>
+            <a:t>Twin (∞,8)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3208,16 +3201,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3226,7 +3219,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26593800" y="1485900"/>
+          <a:off x="29591000" y="3924300"/>
           <a:ext cx="838200" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3269,16 +3262,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3287,7 +3280,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29629100" y="3949700"/>
+          <a:off x="26670000" y="1422400"/>
           <a:ext cx="838200" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3666,13 +3659,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -3963,13 +3956,13 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
@@ -4232,7 +4225,7 @@
       <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4266,8 +4259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4287,48 +4280,48 @@
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="13" customFormat="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:15" s="11" customFormat="1">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8984,7 +8977,7 @@
       </c>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="10">
+      <c r="A101" s="8">
         <f>10000000000</f>
         <v>10000000000</v>
       </c>
@@ -9007,7 +9000,7 @@
         <v>1.18046009828</v>
       </c>
       <c r="H101" s="5"/>
-      <c r="I101" s="10">
+      <c r="I101" s="8">
         <f>10000000000</f>
         <v>10000000000</v>
       </c>

--- a/Cache_User_Simulations/ResultsCharts.xlsx
+++ b/Cache_User_Simulations/ResultsCharts.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Connectivity" sheetId="1" r:id="rId1"/>
+    <sheet name="Codes" sheetId="2" r:id="rId2"/>
+    <sheet name="Restriction" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Connections</t>
   </si>
@@ -83,6 +84,15 @@
   </si>
   <si>
     <t>INFORMATION ABOUT SIMULATION</t>
+  </si>
+  <si>
+    <t>User Speed</t>
+  </si>
+  <si>
+    <t>Cache Effective Speed</t>
+  </si>
+  <si>
+    <t>Cache Speed</t>
   </si>
 </sst>
 </file>
@@ -205,11 +215,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -298,7 +354,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="98">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -324,6 +380,29 @@
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -349,6 +428,29 @@
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
@@ -401,6 +503,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -414,7 +517,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Connectivity!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -435,7 +538,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:f>Connectivity!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -462,7 +565,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:f>Connectivity!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -494,7 +597,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Connectivity!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -513,7 +616,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:f>Connectivity!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -540,7 +643,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:f>Connectivity!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -572,7 +675,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Connectivity!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -593,7 +696,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:f>Connectivity!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -620,7 +723,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:f>Connectivity!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -652,7 +755,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Connectivity!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -673,7 +776,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:f>Connectivity!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -700,7 +803,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$8</c:f>
+              <c:f>Connectivity!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -737,11 +840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2084535512"/>
-        <c:axId val="2084544504"/>
+        <c:axId val="2079494904"/>
+        <c:axId val="2107585832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2084535512"/>
+        <c:axId val="2079494904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -780,6 +883,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -799,7 +903,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084544504"/>
+        <c:crossAx val="2107585832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -807,7 +911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084544504"/>
+        <c:axId val="2107585832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,6 +947,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -862,13 +967,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084535512"/>
+        <c:crossAx val="2079494904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -943,6 +1049,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -966,7 +1073,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$19</c:f>
+              <c:f>Connectivity!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -985,7 +1092,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$27:$A$32</c:f>
+              <c:f>Connectivity!$A$27:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1012,7 +1119,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$B$25</c:f>
+              <c:f>Connectivity!$B$20:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1044,7 +1151,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$19</c:f>
+              <c:f>Connectivity!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1063,7 +1170,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$27:$A$32</c:f>
+              <c:f>Connectivity!$A$27:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1090,7 +1197,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$C$25</c:f>
+              <c:f>Connectivity!$C$20:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1122,7 +1229,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$19</c:f>
+              <c:f>Connectivity!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1141,7 +1248,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$27:$A$32</c:f>
+              <c:f>Connectivity!$A$27:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1168,7 +1275,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$D$25</c:f>
+              <c:f>Connectivity!$D$20:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1200,7 +1307,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$19</c:f>
+              <c:f>Connectivity!$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1219,7 +1326,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$27:$A$32</c:f>
+              <c:f>Connectivity!$A$27:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1246,7 +1353,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$20:$E$25</c:f>
+              <c:f>Connectivity!$E$20:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1283,11 +1390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2109139752"/>
-        <c:axId val="2109147320"/>
+        <c:axId val="2107743256"/>
+        <c:axId val="2107735688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109139752"/>
+        <c:axId val="2107743256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,6 +1433,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1345,7 +1453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109147320"/>
+        <c:crossAx val="2107735688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1353,7 +1461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109147320"/>
+        <c:axId val="2107735688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,6 +1501,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1412,7 +1521,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109139752"/>
+        <c:crossAx val="2107743256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1548,7 +1657,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$101</c:f>
+              <c:f>Codes!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1857,7 +1966,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$101</c:f>
+              <c:f>Codes!$E$2:$E$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -2184,7 +2293,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$L$2:$L$101</c:f>
+              <c:f>Codes!$L$2:$L$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -2493,7 +2602,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$2:$M$101</c:f>
+              <c:f>Codes!$M$2:$M$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -2810,11 +2919,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2062391912"/>
-        <c:axId val="2062399656"/>
+        <c:axId val="2107700872"/>
+        <c:axId val="2107693096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2062391912"/>
+        <c:axId val="2107700872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.75"/>
@@ -2839,7 +2948,7 @@
                     <a:latin typeface="Times New Roman"/>
                     <a:cs typeface="Times New Roman"/>
                   </a:rPr>
-                  <a:t>User Download Time</a:t>
+                  <a:t>User Download Time (Seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2871,12 +2980,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2062399656"/>
+        <c:crossAx val="2107693096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2062399656"/>
+        <c:axId val="2107693096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2945,7 +3054,920 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2062391912"/>
+        <c:crossAx val="2107700872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Cache Population vs. User Download; Conn=24; Sim=10000 (With Cache Restriction)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0521682284095657"/>
+          <c:y val="0.0996073973878465"/>
+          <c:w val="0.85802156190648"/>
+          <c:h val="0.8221026626743"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MDS(n*8,8)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Restriction!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.29668943395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94383601939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.900905808781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.886604486191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.876516731635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.872568747773</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.870656452973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.867114986142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.865484450933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.864694727634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.862855341901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.863172414178</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.860326825897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.860773191711</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.860305195899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.860508409132</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.859726099709</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.857570221054</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.858522818737</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.859223982081</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.858012736227</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.857646252052</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.857488266797</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.857031702157</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.856816971276</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.85698960675</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.856332011519</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.855770741699</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.856289063569</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.856512010877</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.856234500727</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.856332310766</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.856467005352</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.855775475496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.855849132873</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.856418521723</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.855233044795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.855778448616</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.856736462254</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.854900014549</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.855896447559</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.854915595257</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.855339514456</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.855792839039</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.85490923879</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.855689126744</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.854544877517</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.855875949126</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.855532209547</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.853047698672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Restriction!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.450060599767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69787739183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.767725479346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80406605558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.819430231687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82890802637</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.833416218608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.839535296486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.842617837732</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.844234188005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.844952080558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.847260464669</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.846726649488</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.848271051928</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.848975788506</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.849856745348</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84824657615</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.850595309677</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.850969302189</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.851220940111</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.850081905696</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.851978311384</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.850819600219</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.850534465673</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.852253750438</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.852647900217</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.853159065595</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.852044399285</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.852124734347</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.851572055412</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.852241231893</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.849983299191</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.85228632309</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.85316567645</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.853123950437</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.852162724996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.852953316583</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.853279949757</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.852917657335</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.851912686235</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.853518762888</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.85239915631</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.853216401106</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.851003539593</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.852134047205</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.853067917165</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.854586224301</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.852394983839</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.85263101004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.852935624277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Twin(n*8,8)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7F7F7F"/>
+              </a:solidFill>
+              <a:ln w="19050" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Restriction!$L$2:$L$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.5228874636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25259681856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.15104046741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.11279570097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.09149190934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0801816394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.06790572733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.06552098941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.05897876707</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.05688108139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05356602656</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.05308676351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.05039896745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.04876700149</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0462218378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.04717110486</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.04542073644</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.04439777182</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.04462066399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.04273317714</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0414325865</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.04029828406</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.04059344735</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.04444877001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.04179666042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.04019668486</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.04075764445</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.04146889002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.04156163642</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.03872137047</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.03647709283</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0375611804</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.03759373552</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.04030622604</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.03812265262</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.03800971501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.03851656665</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.03897441058</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0389488941</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.03619763808</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.03776530217</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.03382260448</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.03648312484</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.03524852569</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.035525142</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.03520962427</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.03656189402</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.03692440283</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0333861716</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.03025742606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Restriction!$M$2:$M$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.637504420461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.373117265257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.280750084225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.242741050686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.222730387856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.216412156705</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.205843045526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20260371552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.194815720069</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19488089279</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.193029176701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.188594801606</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.185104529071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.188544434777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.186215334898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.184363608613</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.184758592461</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.184056828887</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.181747257394</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.180994283919</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.181995150388</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.184254855526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.182956547946</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.185443425637</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.181374194427</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.184510738731</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.180607772035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.182353944917</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.180821358637</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.179619934787</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.178966463125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.179946682173</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.179456040771</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.179722182248</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.179615768413</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.178961814509</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.181335413919</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.179386753306</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.179229106491</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.179040284918</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.179339736672</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.178618035588</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.178085869017</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.17602393607</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.176589802806</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.177000571813</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.177910342884</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.177740189886</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.176424179297</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.173361415654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2121066040"/>
+        <c:axId val="2121062872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2121066040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.6"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>User Download Time (Seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.424479503682763"/>
+              <c:y val="0.961114229247988"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121062872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2121062872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Cache Population</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t> Time (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Times New Roman"/>
+                  <a:cs typeface="Times New Roman"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.012565444197357"/>
+              <c:y val="0.397566023964092"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121066040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3081,14 +4103,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3097,7 +4119,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31648400" y="2692400"/>
+          <a:off x="31648400" y="2641600"/>
           <a:ext cx="838200" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3202,15 +4224,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3219,7 +4241,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29591000" y="3924300"/>
+          <a:off x="29718000" y="3860800"/>
           <a:ext cx="838200" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3281,6 +4303,285 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26670000" y="1422400"/>
+          <a:ext cx="838200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>MDS (∞,8)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>809624</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>112712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37807900" y="3298825"/>
+          <a:ext cx="838200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Twin (8,8)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30079950" y="7845425"/>
+          <a:ext cx="838200" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Twin (∞,8)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34782125" y="4883150"/>
+          <a:ext cx="838200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>MDS (8,8)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28178125" y="1508125"/>
           <a:ext cx="838200" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3648,7 +4949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:E34"/>
     </sheetView>
   </sheetViews>
@@ -4259,8 +5560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+    <sheetView topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9033,4 +10334,2433 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R4" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="21.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="21.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>30.33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4.29</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.2966894339499999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.45006059976700002</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.81084743789000002</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3.13408049457</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>77.95</v>
+      </c>
+      <c r="K2" s="3">
+        <v>18.18</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.5228874636</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.63750442046099998</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.68188169580000002</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2.4527660946099998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.94383601938999995</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.69787739182999997</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.07535373519</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.7812321759900001</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3">
+        <f>I2+1</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.31</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.25259681856</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.37311726525700001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.82686128237500001</v>
+      </c>
+      <c r="O3" s="3">
+        <v>4.9393303833099997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A50" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.90090580878100002</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.76772547934599999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.12138037299</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.4766618820899999</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I50" si="1">I3+1</f>
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.1510404674100001</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.28075008422499997</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.89186488701599997</v>
+      </c>
+      <c r="O4" s="3">
+        <v>5.6680504199700001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.88660448619099996</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.80406605557999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.13805250394</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.3506470694899999</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.11279570097</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.24274105068599999</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.91880819546500003</v>
+      </c>
+      <c r="O5" s="3">
+        <v>5.9860250623900004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.87651673163499999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.81943023168700002</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.1501745074</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.2892503417100001</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.09149190934</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.222730387856</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.93521921502500005</v>
+      </c>
+      <c r="O6" s="3">
+        <v>6.19799847032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.87256874777299998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.82890802637000005</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.1549102920400001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.25750978626</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.0801816393999999</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.216412156705</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.94389929625400004</v>
+      </c>
+      <c r="O7" s="3">
+        <v>6.2753166451900002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.87065645297299998</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.83341621860799997</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.15722983974</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.24337038821</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.0679057273300001</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.205843045526</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.95327103478099995</v>
+      </c>
+      <c r="O8" s="3">
+        <v>6.4269615800000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.867114986142</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.839535296486</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.1619295866199999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.2275512052799999</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.06552098941</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.20260371552000001</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.95558223427300004</v>
+      </c>
+      <c r="O9" s="3">
+        <v>6.4299989841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.86548445093299997</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.84261783773200005</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.1638219885900001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.21588504986</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.0589787670699999</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.194815720069</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.96119047005500002</v>
+      </c>
+      <c r="O10" s="3">
+        <v>6.5271746245899998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.86469472763400002</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.84423418800500005</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.1646670644099999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.2099816969399999</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.05688108139</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.19488089279000001</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.96256997307699999</v>
+      </c>
+      <c r="O11" s="3">
+        <v>6.5612820571799997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.86285534190099999</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.84495208055799997</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.1668479785799999</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.2058089298300001</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.05356602656</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.193029176701</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.96564375698399996</v>
+      </c>
+      <c r="O12" s="3">
+        <v>6.5659412996100004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.86317241417799995</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.84726046466899996</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.16667489919</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.2002835761299999</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.0530867635100001</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.18859480160600001</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.96549022484900004</v>
+      </c>
+      <c r="O13" s="3">
+        <v>6.5873018640599996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.86032682589700005</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.84672664948800003</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.17034233841</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.199454306</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.0503989674500001</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.185104529071</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.96764621643600002</v>
+      </c>
+      <c r="O14" s="3">
+        <v>6.6402333768700004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.86077319171099997</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.84827105192800001</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.1695398780799999</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.1948916814799999</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1.0487670014899999</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.188544434777</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.96897376198700003</v>
+      </c>
+      <c r="O15" s="3">
+        <v>6.6155353768499996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.86030519589900001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.84897578850599997</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.1701083295100001</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.1934845357699999</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1.0462218378000001</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.18621533489799999</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.97129696696199996</v>
+      </c>
+      <c r="O16" s="3">
+        <v>6.63120379219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.860508409132</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.84985674534800004</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.16993223906</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.19230840304</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1.0471711048600001</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.184363608613</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.97057687638900003</v>
+      </c>
+      <c r="O17" s="3">
+        <v>6.6435166435999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.85972609970900005</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.84824657614999999</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.1709926537799999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.19334954209</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="3">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1.0454207364400001</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.18475859246099999</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.97179311777599997</v>
+      </c>
+      <c r="O18" s="3">
+        <v>6.6653763249800004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.85757022105400005</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.85059530967700003</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.1737981335300001</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.18994342108</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1.0443977718199999</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.18405682888700001</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.97317167275299998</v>
+      </c>
+      <c r="O19" s="3">
+        <v>6.6599843814300002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.85852281873699998</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.85096930218900002</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.1727236106800001</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.18818499139</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1.04462066399</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.18174725739399999</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.97267517493900002</v>
+      </c>
+      <c r="O20" s="3">
+        <v>6.6953610660800003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.85922398208100004</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.85122094011100002</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.1717102775899999</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.18696872393</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1.0427331771399999</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.18099428391899999</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.97458124537099999</v>
+      </c>
+      <c r="O21" s="3">
+        <v>6.6875688129600004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.85801273622700003</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.85008190569599995</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1.17321576338</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.1891556157800001</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1.0414325865</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.18199515038799999</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.97539974405300001</v>
+      </c>
+      <c r="O22" s="3">
+        <v>6.6803018656199997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.85764625205199996</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.85197831138400004</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.1736539428299999</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.1852679534299999</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="3">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1.0402982840599999</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.18425485552599999</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.97655820169200003</v>
+      </c>
+      <c r="O23" s="3">
+        <v>6.6643909420899998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.85748826679699997</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.85081960021900005</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.17372771123</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.18637151401</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="3">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1.04059344735</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.182956547946</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.97641749104099995</v>
+      </c>
+      <c r="O24" s="3">
+        <v>6.6820042176900003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.85703170215699997</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.85053446567299995</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.1746270400500001</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1.1875614863899999</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1.04444877001</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.185443425637</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.97279797735899998</v>
+      </c>
+      <c r="O25" s="3">
+        <v>6.6572486831699997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.85681697127599998</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.852253750438</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.17494527454</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1.1839283030500001</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1.04179666042</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.18137419442700001</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.97515449018900002</v>
+      </c>
+      <c r="O26" s="3">
+        <v>6.70505458396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.85698960675000002</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.85264790021699999</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1.17442895547</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.18372967355</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="3">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1.0401966848599999</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.18451073873099999</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.976703162028</v>
+      </c>
+      <c r="O27" s="3">
+        <v>6.6805426636899998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.85633201151899996</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.85315906559499999</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1.1752319362500001</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1.18273714561</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="3">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1.04075764445</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.180607772035</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.97614061456199996</v>
+      </c>
+      <c r="O28" s="3">
+        <v>6.72254008151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.85577074169900003</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.85204439928499998</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1.17601753848</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1.1838794941899999</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="3">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1.04146889002</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.18235394491699999</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.97535573188299995</v>
+      </c>
+      <c r="O29" s="3">
+        <v>6.6976916112799998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.85628906356900003</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.85212473434699998</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1.1756265313100001</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1.18360462176</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="3">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1.04156163642</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.180821358637</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.97551272554900004</v>
+      </c>
+      <c r="O30" s="3">
+        <v>6.7354358475499998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.85651201087700002</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.85157205541199998</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1.1750469209900001</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1.18411205846</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1.03872137047</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.179619934787</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.97798362273499995</v>
+      </c>
+      <c r="O31" s="3">
+        <v>6.7200119368299998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.85623450072700003</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.85224123189300005</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1.17572226967</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1.1832386873</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="3">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1.03647709283</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.178966463125</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.979615179896</v>
+      </c>
+      <c r="O32" s="3">
+        <v>6.7465741966900001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.85633231076600003</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.84998329919100002</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.17537496997</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1.18610280003</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="3">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1.0375611804</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.179946682173</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.97893101325800003</v>
+      </c>
+      <c r="O33" s="3">
+        <v>6.7177330027300002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.85646700535200004</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.85228632308999996</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1.1749868485599999</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1.1820754772099999</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="3">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1.03759373552</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.179456040771</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.97907960570399999</v>
+      </c>
+      <c r="O34" s="3">
+        <v>6.7237358398399998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.85577547549599997</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.85316567644999997</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.17610213227</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1.18137929597</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="3">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1.04030622604</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.17972218224799999</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.97626722991100001</v>
+      </c>
+      <c r="O35" s="3">
+        <v>6.7446388492500002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.85584913287300002</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.85312395043699996</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1.17581692864</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1.1810327683299999</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1.03812265262</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.179615768413</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0.97815077459099997</v>
+      </c>
+      <c r="O36" s="3">
+        <v>6.7521448398099997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.85641852172300004</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.85216272499599999</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1.17531887394</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1.1825202992199999</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="3">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1.0380097150100001</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0.17896181450900001</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0.97837246608799999</v>
+      </c>
+      <c r="O37" s="3">
+        <v>6.74537991521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.85523304479499995</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.852953316583</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1.17669662028</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1.18129289905</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="3">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1.03851656665</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.18133541391899999</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.97842702619199995</v>
+      </c>
+      <c r="O38" s="3">
+        <v>6.7237431242200003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.85577844861600005</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.85327994975699994</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1.1760790934400001</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1.1813439137099999</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="3">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1.0389744105800001</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0.17938675330600001</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.97737154725700004</v>
+      </c>
+      <c r="O39" s="3">
+        <v>6.7494202697299999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.85673646225400002</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.85291765733500002</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1.1747649203199999</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1.1814218867499999</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="3">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1.0389488941</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.17922910649099999</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.97763309331000003</v>
+      </c>
+      <c r="O40" s="3">
+        <v>6.7386417518600004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.854900014549</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.85191268623500005</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1.17716778033</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1.18269434707</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1.03619763808</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.179040284918</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.98013467984299996</v>
+      </c>
+      <c r="O41" s="3">
+        <v>6.7200509965800004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.85589644755899996</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.85351876288799999</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1.1758646640299999</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1.1812214452700001</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="3">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1.03776530217</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.17933973667200001</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0.97841396171899997</v>
+      </c>
+      <c r="O42" s="3">
+        <v>6.7384609076200004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.854915595257</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.85239915630999996</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1.17704754512</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1.1822464017900001</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="3">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1.0338226044800001</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0.17861803558799999</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0.98229560284700002</v>
+      </c>
+      <c r="O43" s="3">
+        <v>6.7587338160200003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.85533951445599998</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.85321640110600006</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1.1767921588500001</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1.18047432998</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="3">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1.0364831248399999</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.17808586901699999</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.97975429148000004</v>
+      </c>
+      <c r="O44" s="3">
+        <v>6.7511749896</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.85579283903900005</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.85100353959300001</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1.1759950085599999</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1.1838412938</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="3">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1.0352485256899999</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.17602393607</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.98093140125400002</v>
+      </c>
+      <c r="O45" s="3">
+        <v>6.7720141732899997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.85490923879000003</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.85213404720499997</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1.17707381861</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1.1819386409699999</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1.035525142</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.17658980280600001</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.98066756882100004</v>
+      </c>
+      <c r="O46" s="3">
+        <v>6.7523596476099996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.85568912674399999</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.85306791716499997</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1.17615254061</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1.1806261691</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="3">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1.03520962427</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0.177000571813</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0.98100467046100004</v>
+      </c>
+      <c r="O47" s="3">
+        <v>6.7657728662599999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.85454487751700003</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.85458622430099995</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1.1776011908899999</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1.17908413988</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="3">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1.0365618940200001</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0.17791034288400001</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.97986151077299999</v>
+      </c>
+      <c r="O48" s="3">
+        <v>6.7403722789499998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.85587594912599996</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.85239498383900003</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1.1758468256300001</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1.1817157138200001</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="3">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1.03692440283</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0.17774018988599999</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0.97909623882600005</v>
+      </c>
+      <c r="O49" s="3">
+        <v>6.7849950240299997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.85553220954700004</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.85263101003999997</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1.1765197888800001</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1.18137728272</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="3">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1.0333861715999999</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0.17642417929699999</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.98264191853100002</v>
+      </c>
+      <c r="O50" s="3">
+        <v>6.76401817109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="8">
+        <f>10000000000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.85304769867200003</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.85293562427699998</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1.1795822621900001</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1.1797324366499999</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="8">
+        <f>10000000000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1.0302574260599999</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0.17336141565400001</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0.98542732307799996</v>
+      </c>
+      <c r="O51" s="3">
+        <v>6.7943895613600001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Cache_User_Simulations/ResultsCharts.xlsx
+++ b/Cache_User_Simulations/ResultsCharts.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Connectivity" sheetId="1" r:id="rId1"/>
     <sheet name="Codes" sheetId="2" r:id="rId2"/>
     <sheet name="Restriction" sheetId="3" r:id="rId3"/>
+    <sheet name="Restriction (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
   <si>
     <t>Connections</t>
   </si>
@@ -215,11 +216,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="98">
+  <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -354,7 +399,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="98">
+  <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -403,6 +448,28 @@
     <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -451,6 +518,28 @@
     <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
@@ -840,11 +929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2079494904"/>
-        <c:axId val="2107585832"/>
+        <c:axId val="2071123592"/>
+        <c:axId val="2114090328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2079494904"/>
+        <c:axId val="2071123592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107585832"/>
+        <c:crossAx val="2114090328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -911,7 +1000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107585832"/>
+        <c:axId val="2114090328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,7 +1056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2079494904"/>
+        <c:crossAx val="2071123592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1390,11 +1479,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2107743256"/>
-        <c:axId val="2107735688"/>
+        <c:axId val="2114034744"/>
+        <c:axId val="2114027176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2107743256"/>
+        <c:axId val="2114034744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,7 +1542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107735688"/>
+        <c:crossAx val="2114027176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1461,7 +1550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107735688"/>
+        <c:axId val="2114027176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107743256"/>
+        <c:crossAx val="2114034744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2919,11 +3008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107700872"/>
-        <c:axId val="2107693096"/>
+        <c:axId val="2116795656"/>
+        <c:axId val="2116803432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107700872"/>
+        <c:axId val="2116795656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.75"/>
@@ -2980,12 +3069,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107693096"/>
+        <c:crossAx val="2116803432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107693096"/>
+        <c:axId val="2116803432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3054,7 +3143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107700872"/>
+        <c:crossAx val="2116795656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3850,6 +3939,332 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Twin 75-25 Proportion</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Restriction!$T$2:$T$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.41583288397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.09801932213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.024216184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.998172638249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.985902854794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97514278101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.971517395246</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.966441032811</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.964679205023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.961262886987</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.960787562195</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.958875696289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.958573820969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.955644212935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.952877785678</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.953495819239</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.952319194481</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.953458640798</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.950118330519</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95044893217</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.951317713626</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.951361996411</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.949585792584</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.951357588836</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.949911889953</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.950498225409</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.949198919673</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.947643241737</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.949297921262</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.949014529792</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.949672273292</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.948707324243</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.946119679193</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.946614751743</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.945123443487</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.947127637892</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.947088713739</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.94716959625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.946944674157</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.947268375128</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.947035282633</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.946062427272</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.947049750768</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.946084749832</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.947433642894</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.947691156574</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.947383493254</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.943207040929</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.948201181326</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.940026059753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Restriction!$U$2:$U$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.452531008261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.694375477638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.771889342648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.803308837569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.820721479741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.827462711335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.835887880336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.839005734253</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84139208176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.844205931855</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.844277889498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.844404428029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.847716641842</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.848236489925</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.848419649428</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.850303133453</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.848673637272</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.849576654551</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.850780294728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85146166705</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.850922268343</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.851271816173</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.851003195725</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.851934256697</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.851709050989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.852074661456</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.851865753667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.852532498546</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.85191509721</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.851199713994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.852219009639</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.852766079734</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.852316605135</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.852971985605</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.851541617829</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.851826073852</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.852550778455</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.852266089177</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.851228642262</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.851364024071</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85208074811</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.853130071427</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.852813850469</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.852896937235</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.853430370674</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.852529415681</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.85246350258</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.853193701912</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.852992612172</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.85129994048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3858,11 +4273,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121066040"/>
-        <c:axId val="2121062872"/>
+        <c:axId val="2071963720"/>
+        <c:axId val="2071155400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121066040"/>
+        <c:axId val="2071963720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.6"/>
@@ -3906,12 +4321,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121062872"/>
+        <c:crossAx val="2071155400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121062872"/>
+        <c:axId val="2071155400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -3967,7 +4382,2470 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121066040"/>
+        <c:crossAx val="2071963720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Cache Population vs. User Download; Conn=24; Sim=10000 (With Cache Restriction)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0521682284095657"/>
+          <c:y val="0.0996073973878465"/>
+          <c:w val="0.85802156190648"/>
+          <c:h val="0.8221026626743"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MDS(n*8,8)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Restriction (2)'!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Restriction (2)'!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.452531008261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.694375477638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.771889342648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.803308837569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.820721479741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.827462711335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.835887880336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.839005734253</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84139208176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.844205931855</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.844277889498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.844404428029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.847716641842</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.848236489925</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.848419649428</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.850303133453</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.848673637272</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.849576654551</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.850780294728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85146166705</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.850922268343</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.851271816173</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.851003195725</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.851934256697</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.851709050989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.852074661456</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.851865753667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.852532498546</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.85191509721</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.851199713994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.852219009639</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.852766079734</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.852316605135</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.852971985605</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.851541617829</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.851826073852</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.852550778455</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.852266089177</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.851228642262</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.851364024071</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85208074811</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.853130071427</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.852813850469</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.852896937235</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.853430370674</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.852529415681</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.85246350258</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.853193701912</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.852992612172</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.85129994048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Twin(n*8,8)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7F7F7F"/>
+              </a:solidFill>
+              <a:ln w="19050" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Restriction (2)'!$L$2:$L$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.5228874636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25259681856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.15104046741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.11279570097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.09149190934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0801816394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.06790572733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.06552098941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.05897876707</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.05688108139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05356602656</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.05308676351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.05039896745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.04876700149</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0462218378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.04717110486</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.04542073644</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.04439777182</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.04462066399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.04273317714</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0414325865</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.04029828406</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.04059344735</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.04444877001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.04179666042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.04019668486</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.04075764445</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.04146889002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.04156163642</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.03872137047</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.03647709283</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0375611804</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.03759373552</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.04030622604</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.03812265262</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.03800971501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.03851656665</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.03897441058</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0389488941</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.03619763808</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.03776530217</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.03382260448</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.03648312484</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.03524852569</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.035525142</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.03520962427</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.03656189402</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.03692440283</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0333861716</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.03025742606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Restriction (2)'!$M$2:$M$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.637504420461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.373117265257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.280750084225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.242741050686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.222730387856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.216412156705</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.205843045526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20260371552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.194815720069</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19488089279</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.193029176701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.188594801606</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.185104529071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.188544434777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.186215334898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.184363608613</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.184758592461</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.184056828887</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.181747257394</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.180994283919</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.181995150388</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.184254855526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.182956547946</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.185443425637</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.181374194427</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.184510738731</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.180607772035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.182353944917</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.180821358637</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.179619934787</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.178966463125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.179946682173</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.179456040771</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.179722182248</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.179615768413</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.178961814509</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.181335413919</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.179386753306</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.179229106491</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.179040284918</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.179339736672</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.178618035588</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.178085869017</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.17602393607</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.176589802806</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.177000571813</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.177910342884</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.177740189886</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.176424179297</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.173361415654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2122785688"/>
+        <c:axId val="2128413400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2122785688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.6"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>User Download Time (Seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.424479503682763"/>
+              <c:y val="0.961114229247988"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128413400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2128413400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Cache Population</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t> Time (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Times New Roman"/>
+                  <a:cs typeface="Times New Roman"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.012565444197357"/>
+              <c:y val="0.397566023964092"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122785688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Cache Population vs. User Download</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>; Conn=24; Sim=10000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0729470125057897"/>
+          <c:y val="0.0729221112776452"/>
+          <c:w val="0.820191199629458"/>
+          <c:h val="0.841394242609754"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MDS(n,8)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Codes!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.30002821279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94335907393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.901269708632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.885190980208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.877619943422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.872996992904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.869805242896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.867400873837</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.866049125272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.864330049904</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.864141165183</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.862421201066</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.861335815637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.859839168523</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.861099496402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.859245482461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.860370263976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.857160997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.858612469061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.859111998025</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.859134467115</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.857668023821</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.857377179215</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.858937953812</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.857998151868</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.857353715356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.856152171012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.856194118954</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.856982199179</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.857001230819</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.856375986298</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.857313441705</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.855596234916</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.856317468582</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.856733033908</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.856690848319</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.855270572676</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.854389994104</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.855659675853</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.85520051021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.855168264232</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.855103191836</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.856193167351</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.855628186462</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.855104799607</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.855816106828</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.855363320143</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.853573669645</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.854342957241</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.854004573307</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.854584003671</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.853788288542</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.854700268446</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.853961988281</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.853836162207</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.855264764294</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.854141038028</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.855309653312</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.854512393754</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.854410063379</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.854066115542</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.854194759598</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.855424894385</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.853371631414</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.85514051481</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.854517363655</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.854802115475</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.853552004435</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.855313604832</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.854011435554</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.854021426349</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.854738919278</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.854122219866</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.854518136827</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.852567884955</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.854508435935</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.855301140704</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.853316929899</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.854750469469</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.852532805077</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.854025442263</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.85392828904</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.853734256533</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.852873222067</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.852785563378</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.855366525933</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.85384328195</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.853623759044</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.85435474882</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.853975865769</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.854097438294</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.853573711898</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.854111208428</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.854444554929</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.853153209737</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.854220199788</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.854384759058</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.853567687448</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.853879601727</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.853222933679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Codes!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.457630530372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.606350619663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.677743665994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.723467095429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.749596060481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.768946658224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.779643522814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.790795649297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.796339770289</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.804199127918</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.806809962139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.811489370179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.814395368735</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.817759049827</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.819575849805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.822192651103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.825494471187</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82709911979</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.827324402052</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.829678679392</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.829566180862</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.831691608841</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.832552557408</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.833769095748</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.834465458669</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.834239421882</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.835638967648</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.835282133488</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.836725267893</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.837210163522</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.836158956626</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.837784454643</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.83935073945</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.839730443999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.838199356354</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.840660320101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.841004394795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.841053861951</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.841080255249</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.840493987474</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.841817138778</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.841653110611</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.841763429819</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.841687885547</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.842600929227</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.842885639817</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.843465311098</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.843784751468</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.842800993251</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.841256023182</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.842800161094</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.843469292658</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.844686983041</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.843121025774</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.843985170448</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.845159357869</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.844005825232</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.843425467342</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.846591330531</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.844937313041</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.84338006848</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.844351408877</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.846326061607</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.845865039592</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.845245212679</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.845190497314</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.844856126185</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.847443727177</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.847051572422</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.845506920867</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.846066197441</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.845560816334</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.846043175525</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.847439427098</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.847050408929</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.846223847683</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.846857873899</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.846909342381</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.846263388174</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.847398527217</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.846762499582</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.847090182937</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.846554322569</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.848944367675</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.846706647246</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.847751997987</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.847650603288</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.846921420334</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.847354325717</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.847491125669</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.847472743201</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.84778329608</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.848315425548</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.848353468025</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.849260420607</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.848209892295</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.847354027655</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.848839885978</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.846897409503</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.852350508212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Twin(k,8)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng"/>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng"/>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Codes!$L$2:$L$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.51865478587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.24897868778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.15071906415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.11264835069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0954645692</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.08178006277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.07236365154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.06753129958</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.06169384808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.05536102305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05284149798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.05229734202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.04878871252</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.04819062081</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.04800881225</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.04570813929</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.04403383727</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.04387199855</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0434702147</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.04342932978</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.04250135144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.04176157674</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.03943947731</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.04101737041</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.04020694866</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.03887284949</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0416272557</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.03794761773</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.03956121788</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.04014028557</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.03705321888</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.03742574836</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.03824513975</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.03693711671</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.03857667419</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.03836347683</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.03641163031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.03619620332</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.03425287543</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.03388455331</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.03548804711</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0356195639</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.03497320382</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.03483229107</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.03584755801</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.03430964372</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.03496157931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.03530905931</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.03553445356</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.03540648092</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.03321666181</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0335115287</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.03516389884</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.03501266602</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.03380428239</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.03306192041</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.03467420546</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.03426884801</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.03412191974</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.03405268072</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.03629103963</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.03183362024</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.03525670154</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.03383125961</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.03108681857</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.03648025541</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.0320960037</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.03472705756</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.03540939571</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.03370006487</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.03514181016</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.03331787628</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.03197732251</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.03177634642</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.03321729498</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.03266947596</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.03655733491</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0330184047</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.03391941296</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.03535606183</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.03140612619</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.03253832083</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.03298241283</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.03299472644</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.03216563909</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.03483567566</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.03440277142</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.03194323332</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.03206473467</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.03207770201</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.03261065777</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.03459974062</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.03140484596</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0322490059</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.03205631116</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.0338662835</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.03113573809</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.03200650793</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.02974523555</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.028492917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Codes!$M$2:$M$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.640493425466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.377264076435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.270288545075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23212220227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.218142503581</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.208883830917</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20217014548</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.196216788216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.195660671342</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.193813098071</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.191071395857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1868423054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.189122877059</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.188366405512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.188326773396</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.187159730629</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.183137543052</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18537537097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.180926430129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.184818885979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.179117082595</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.180553930326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.182910655476</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.181489456047</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.180496180481</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.179601783556</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.178098931122</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.179984325281</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.180064803798</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.180285859151</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.180187848837</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.178187903269</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.182458382376</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.178950646869</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.178884167428</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.177176632591</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.177134534372</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.180229239299</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.17728287242</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.179638721961</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.175455516766</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.177506424073</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.177825263681</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.178970344378</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.175769503304</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.177668625428</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.175914898606</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.175931072813</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.176674292259</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.177821036326</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.175658725351</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.17870928841</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.176796022812</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.174853784599</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.177202354217</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.175229288638</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.178770950337</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.176951445538</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.173246280117</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.175633992565</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.178793740123</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.177484789203</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.177586144718</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.17601933562</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.177699120177</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.177641517443</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.178543857522</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.174225377495</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.17586208941</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.176225264232</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.177629680655</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.175836515164</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.173467574551</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.177299373768</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.174773097097</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.174336401958</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.179025851277</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.176257489786</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.177874627266</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.174760802157</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.177771848302</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.17626849892</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.175581829458</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.173853327183</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.175845298897</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.177008990493</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.176030154378</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.176407468491</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.178014009839</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.177388192416</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.17496529509</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.17781782329</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.173117200105</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.175869089021</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.175636972656</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.175852899173</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.176758725849</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.171941810679</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.177311094362</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.176028944756</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2128270008"/>
+        <c:axId val="2128277688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2128270008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.75"/>
+          <c:min val="0.75"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>User Download Time (Seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.437010282538212"/>
+              <c:y val="0.94816800714924"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128277688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2128277688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Cache</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t> Population Time (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Times New Roman"/>
+                  <a:cs typeface="Times New Roman"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0223529411764706"/>
+              <c:y val="0.359701223674118"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128270008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4350,13 +7228,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>809624</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>112712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
@@ -4365,6 +7243,287 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37807900" y="3298825"/>
+          <a:ext cx="838200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Twin (8,8)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30079950" y="7845425"/>
+          <a:ext cx="838200" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Twin (∞,8)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34782125" y="4883150"/>
+          <a:ext cx="838200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>MDS (8,8)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28178125" y="1508125"/>
+          <a:ext cx="838200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>MDS (∞,8)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>492124</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4393,12 +7552,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37807900" y="3298825"/>
+          <a:off x="43830875" y="3298825"/>
           <a:ext cx="838200" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4454,13 +7613,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30079950" y="7845425"/>
-          <a:ext cx="838200" cy="254000"/>
+          <a:off x="34426525" y="7845425"/>
+          <a:ext cx="1663700" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4515,12 +7674,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34782125" y="4883150"/>
+          <a:off x="40805100" y="4883150"/>
           <a:ext cx="838200" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4576,13 +7735,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28178125" y="1508125"/>
-          <a:ext cx="838200" cy="241300"/>
+          <a:off x="30899100" y="1508125"/>
+          <a:ext cx="1651000" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4620,6 +7779,38 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5560,8 +8751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="V40" sqref="V40"/>
+    <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10338,10 +13529,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R4" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10358,9 +13549,14 @@
     <col min="12" max="13" width="21.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="21.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="20" width="23.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="21.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:23">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -10404,8 +13600,30 @@
       <c r="O1" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10449,8 +13667,30 @@
       <c r="O2" s="3">
         <v>2.4527660946099998</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>57.93</v>
+      </c>
+      <c r="S2" s="3">
+        <v>4.21</v>
+      </c>
+      <c r="T2" s="3">
+        <v>1.4158328839700001</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0.45253100826100001</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.74018557023999998</v>
+      </c>
+      <c r="W2" s="3">
+        <v>3.1157918824199999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -10496,8 +13736,31 @@
       <c r="O3" s="3">
         <v>4.9393303833099997</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="3">
+        <f>Q2+1</f>
+        <v>2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1.0980193221300001</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.694375477638</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.93909981998400005</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1.78714912979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A50" si="0">A3+1</f>
         <v>3</v>
@@ -10543,8 +13806,31 @@
       <c r="O4" s="3">
         <v>5.6680504199700001</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4:Q50" si="2">Q3+1</f>
+        <v>3</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1.0242161839999999</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.77188934264800002</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.99793954721199996</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1.46778826697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10590,8 +13876,31 @@
       <c r="O5" s="3">
         <v>5.9860250623900004</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.99817263824900004</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.80330883756899996</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1.02000711197</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1.3511405909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10637,8 +13946,31 @@
       <c r="O6" s="3">
         <v>6.19799847032</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.98590285479399997</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.82072147974099996</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1.0320819408699999</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1.2883425368999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10684,8 +14016,31 @@
       <c r="O7" s="3">
         <v>6.2753166451900002</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.97514278100999996</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.82746271133500005</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1.0422121100199999</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1.2638033504099999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10731,8 +14086,31 @@
       <c r="O8" s="3">
         <v>6.4269615800000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="5"/>
+      <c r="Q8" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.971517395246</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.83588788033600003</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1.0458181265299999</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1.2361902606099999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10778,8 +14156,31 @@
       <c r="O9" s="3">
         <v>6.4299989841</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.96644103281100002</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.83900573425299996</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1.05048350098</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1.22513305631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10825,8 +14226,31 @@
       <c r="O10" s="3">
         <v>6.5271746245899998</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="5"/>
+      <c r="Q10" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.96467920502299997</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.84139208176000002</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1.0525149878</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1.21758634069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -10872,8 +14296,31 @@
       <c r="O11" s="3">
         <v>6.5612820571799997</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.96126288698700002</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.84420593185500004</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1.0558045866400001</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1.2091130028999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -10919,8 +14366,31 @@
       <c r="O12" s="3">
         <v>6.5659412996100004</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="3">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.96078756219499994</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.84427788949799998</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1.05652360043</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1.20771963918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -10966,8 +14436,31 @@
       <c r="O13" s="3">
         <v>6.5873018640599996</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="3">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.95887569628900005</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.84440442802899995</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1.0579395059500001</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1.20544810655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -11013,8 +14506,31 @@
       <c r="O14" s="3">
         <v>6.6402333768700004</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.95857382096900001</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.84771664184200002</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1.0584352616399999</v>
+      </c>
+      <c r="W14" s="3">
+        <v>1.1983917093500001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -11060,8 +14576,31 @@
       <c r="O15" s="3">
         <v>6.6155353768499996</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.95564421293500001</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.848236489925</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1.06163778415</v>
+      </c>
+      <c r="W15" s="3">
+        <v>1.1958445984299999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -11107,8 +14646,31 @@
       <c r="O16" s="3">
         <v>6.63120379219</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="5"/>
+      <c r="Q16" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.95287778567799997</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.84841964942799997</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1.06452171325</v>
+      </c>
+      <c r="W16" s="3">
+        <v>1.1934916744099999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -11154,8 +14716,31 @@
       <c r="O17" s="3">
         <v>6.6435166435999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.95349581923899995</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.85030313345300002</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1.0633518660200001</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1.18994290938</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -11201,8 +14786,31 @@
       <c r="O18" s="3">
         <v>6.6653763249800004</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="3">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.952319194481</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0.84867363727199996</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1.0648615430399999</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1.19272146295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -11248,8 +14856,31 @@
       <c r="O19" s="3">
         <v>6.6599843814300002</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.95345864079800002</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0.84957665455099995</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1.06394990079</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1.19058899857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -11295,8 +14926,31 @@
       <c r="O20" s="3">
         <v>6.6953610660800003</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="3">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0.95011833051899997</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0.85078029472799999</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1.06696817869</v>
+      </c>
+      <c r="W20" s="3">
+        <v>1.1881000611500001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -11342,8 +14996,31 @@
       <c r="O21" s="3">
         <v>6.6875688129600004</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0.95044893217000004</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0.85146166705000004</v>
+      </c>
+      <c r="V21" s="3">
+        <v>1.0665244652999999</v>
+      </c>
+      <c r="W21" s="3">
+        <v>1.18678680119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -11389,8 +15066,31 @@
       <c r="O22" s="3">
         <v>6.6803018656199997</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="3">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0.95131771362600004</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0.850922268343</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1.0661018578899999</v>
+      </c>
+      <c r="W22" s="3">
+        <v>1.1875979236900001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -11436,8 +15136,31 @@
       <c r="O23" s="3">
         <v>6.6643909420899998</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="5"/>
+      <c r="Q23" s="3">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0.95136199641100005</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.85127181617299996</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1.06542226677</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1.18668106078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -11483,8 +15206,31 @@
       <c r="O24" s="3">
         <v>6.6820042176900003</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0.949585792584</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0.85100319572500005</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1.0675186596299999</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1.18736509952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -11530,8 +15276,31 @@
       <c r="O25" s="3">
         <v>6.6572486831699997</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="5"/>
+      <c r="Q25" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0.95135758883599997</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0.85193425669699996</v>
+      </c>
+      <c r="V25" s="3">
+        <v>1.0656744414899999</v>
+      </c>
+      <c r="W25" s="3">
+        <v>1.1847782687999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -11577,8 +15346,31 @@
       <c r="O26" s="3">
         <v>6.70505458396</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0.94991188995300002</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0.85170905098899996</v>
+      </c>
+      <c r="V26" s="3">
+        <v>1.06728385632</v>
+      </c>
+      <c r="W26" s="3">
+        <v>1.1849595563599999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -11624,8 +15416,31 @@
       <c r="O27" s="3">
         <v>6.6805426636899998</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0.95049822540899997</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0.85207466145599997</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1.0667745819100001</v>
+      </c>
+      <c r="W27" s="3">
+        <v>1.1841252151599999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -11671,8 +15486,31 @@
       <c r="O28" s="3">
         <v>6.72254008151</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="5"/>
+      <c r="Q28" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0.94919891967299996</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0.85186575366700001</v>
+      </c>
+      <c r="V28" s="3">
+        <v>1.0677906261800001</v>
+      </c>
+      <c r="W28" s="3">
+        <v>1.18407068185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -11718,8 +15556,31 @@
       <c r="O29" s="3">
         <v>6.6976916112799998</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="5"/>
+      <c r="Q29" s="3">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0.94764324173699999</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.85253249854599999</v>
+      </c>
+      <c r="V29" s="3">
+        <v>1.0694006836900001</v>
+      </c>
+      <c r="W29" s="3">
+        <v>1.1830341209699999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -11765,8 +15626,31 @@
       <c r="O30" s="3">
         <v>6.7354358475499998</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="5"/>
+      <c r="Q30" s="3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0.94929792126199997</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0.85191509721000003</v>
+      </c>
+      <c r="V30" s="3">
+        <v>1.0674956736300001</v>
+      </c>
+      <c r="W30" s="3">
+        <v>1.1838681226000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -11812,8 +15696,31 @@
       <c r="O31" s="3">
         <v>6.7200119368299998</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="5"/>
+      <c r="Q31" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0.94901452979199996</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0.85119971399399996</v>
+      </c>
+      <c r="V31" s="3">
+        <v>1.0683123291900001</v>
+      </c>
+      <c r="W31" s="3">
+        <v>1.18515954892</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -11859,8 +15766,31 @@
       <c r="O32" s="3">
         <v>6.7465741966900001</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" s="5"/>
+      <c r="Q32" s="3">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0.94967227329199999</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0.85221900963899999</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1.06741080057</v>
+      </c>
+      <c r="W32" s="3">
+        <v>1.1833945774700001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -11906,8 +15836,31 @@
       <c r="O33" s="3">
         <v>6.7177330027300002</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33" s="5"/>
+      <c r="Q33" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0.94870732424299997</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0.85276607973399998</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1.0682328384199999</v>
+      </c>
+      <c r="W33" s="3">
+        <v>1.1826365812399999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -11953,8 +15906,31 @@
       <c r="O34" s="3">
         <v>6.7237358398399998</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34" s="5"/>
+      <c r="Q34" s="3">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0.946119679193</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0.85231660513499996</v>
+      </c>
+      <c r="V34" s="3">
+        <v>1.07121197467</v>
+      </c>
+      <c r="W34" s="3">
+        <v>1.1829373648299999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -12000,8 +15976,31 @@
       <c r="O35" s="3">
         <v>6.7446388492500002</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35" s="5"/>
+      <c r="Q35" s="3">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0.94661475174300003</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0.85297198560499998</v>
+      </c>
+      <c r="V35" s="3">
+        <v>1.0704525007200001</v>
+      </c>
+      <c r="W35" s="3">
+        <v>1.1821465368199999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -12047,8 +16046,31 @@
       <c r="O36" s="3">
         <v>6.7521448398099997</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36" s="5"/>
+      <c r="Q36" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="R36" s="3">
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3">
+        <v>0.94512344348699995</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0.85154161782899995</v>
+      </c>
+      <c r="V36" s="3">
+        <v>1.07243065753</v>
+      </c>
+      <c r="W36" s="3">
+        <v>1.18370010538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -12094,8 +16116,31 @@
       <c r="O37" s="3">
         <v>6.74537991521</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37" s="5"/>
+      <c r="Q37" s="3">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
+        <v>0.94712763789200005</v>
+      </c>
+      <c r="U37" s="3">
+        <v>0.85182607385200004</v>
+      </c>
+      <c r="V37" s="3">
+        <v>1.06988483366</v>
+      </c>
+      <c r="W37" s="3">
+        <v>1.18334674368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -12141,8 +16186,31 @@
       <c r="O38" s="3">
         <v>6.7237431242200003</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38" s="5"/>
+      <c r="Q38" s="3">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0</v>
+      </c>
+      <c r="S38" s="3">
+        <v>0</v>
+      </c>
+      <c r="T38" s="3">
+        <v>0.94708871373900005</v>
+      </c>
+      <c r="U38" s="3">
+        <v>0.85255077845500005</v>
+      </c>
+      <c r="V38" s="3">
+        <v>1.07022348605</v>
+      </c>
+      <c r="W38" s="3">
+        <v>1.1823616801500001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -12188,8 +16256,31 @@
       <c r="O39" s="3">
         <v>6.7494202697299999</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39" s="5"/>
+      <c r="Q39" s="3">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="R39" s="3">
+        <v>0</v>
+      </c>
+      <c r="S39" s="3">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3">
+        <v>0.94716959624999997</v>
+      </c>
+      <c r="U39" s="3">
+        <v>0.85226608917699997</v>
+      </c>
+      <c r="V39" s="3">
+        <v>1.06999463498</v>
+      </c>
+      <c r="W39" s="3">
+        <v>1.18246406178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -12235,8 +16326,31 @@
       <c r="O40" s="3">
         <v>6.7386417518600004</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40" s="5"/>
+      <c r="Q40" s="3">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="R40" s="3">
+        <v>0</v>
+      </c>
+      <c r="S40" s="3">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3">
+        <v>0.94694467415700001</v>
+      </c>
+      <c r="U40" s="3">
+        <v>0.85122864226200001</v>
+      </c>
+      <c r="V40" s="3">
+        <v>1.07045154704</v>
+      </c>
+      <c r="W40" s="3">
+        <v>1.1837109539299999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -12282,8 +16396,31 @@
       <c r="O41" s="3">
         <v>6.7200509965800004</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41" s="5"/>
+      <c r="Q41" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0.947268375128</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0.85136402407099998</v>
+      </c>
+      <c r="V41" s="3">
+        <v>1.06977711777</v>
+      </c>
+      <c r="W41" s="3">
+        <v>1.18313969825</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -12329,8 +16466,31 @@
       <c r="O42" s="3">
         <v>6.7384609076200004</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="P42" s="5"/>
+      <c r="Q42" s="3">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0.94703528263299996</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0.85208074811000001</v>
+      </c>
+      <c r="V42" s="3">
+        <v>1.0702001400700001</v>
+      </c>
+      <c r="W42" s="3">
+        <v>1.18244374496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -12376,8 +16536,31 @@
       <c r="O43" s="3">
         <v>6.7587338160200003</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="P43" s="5"/>
+      <c r="Q43" s="3">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0.94606242727199996</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0.85313007142700004</v>
+      </c>
+      <c r="V43" s="3">
+        <v>1.0713515415199999</v>
+      </c>
+      <c r="W43" s="3">
+        <v>1.18044506503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -12423,8 +16606,31 @@
       <c r="O44" s="3">
         <v>6.7511749896</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="P44" s="5"/>
+      <c r="Q44" s="3">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0.94704975076800002</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0.85281385046900005</v>
+      </c>
+      <c r="V44" s="3">
+        <v>1.07013122105</v>
+      </c>
+      <c r="W44" s="3">
+        <v>1.18128193348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -12470,8 +16676,31 @@
       <c r="O45" s="3">
         <v>6.7720141732899997</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="P45" s="5"/>
+      <c r="Q45" s="3">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0.94608474983199997</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0.85289693723500004</v>
+      </c>
+      <c r="V45" s="3">
+        <v>1.07136402738</v>
+      </c>
+      <c r="W45" s="3">
+        <v>1.1807425890700001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -12517,8 +16746,31 @@
       <c r="O46" s="3">
         <v>6.7523596476099996</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="P46" s="5"/>
+      <c r="Q46" s="3">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0.94743364289400001</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0.85343037067399996</v>
+      </c>
+      <c r="V46" s="3">
+        <v>1.0698468861499999</v>
+      </c>
+      <c r="W46" s="3">
+        <v>1.1805320240599999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -12564,8 +16816,31 @@
       <c r="O47" s="3">
         <v>6.7657728662599999</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="P47" s="5"/>
+      <c r="Q47" s="3">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0.94769115657400005</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0.85252941568100005</v>
+      </c>
+      <c r="V47" s="3">
+        <v>1.06938641928</v>
+      </c>
+      <c r="W47" s="3">
+        <v>1.18201740995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -12611,8 +16886,31 @@
       <c r="O48" s="3">
         <v>6.7403722789499998</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="P48" s="5"/>
+      <c r="Q48" s="3">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0.94738349325399995</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0.85246350258000003</v>
+      </c>
+      <c r="V48" s="3">
+        <v>1.0696563913199999</v>
+      </c>
+      <c r="W48" s="3">
+        <v>1.18154245282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -12658,8 +16956,31 @@
       <c r="O49" s="3">
         <v>6.7849950240299997</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="P49" s="5"/>
+      <c r="Q49" s="3">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0.94320704092899998</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0.85319370191199995</v>
+      </c>
+      <c r="V49" s="3">
+        <v>1.07396588164</v>
+      </c>
+      <c r="W49" s="3">
+        <v>1.1802237872800001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -12705,8 +17026,31 @@
       <c r="O50" s="3">
         <v>6.76401817109</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="P50" s="5"/>
+      <c r="Q50" s="3">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0.94820118132599995</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0.85299261217199995</v>
+      </c>
+      <c r="V50" s="3">
+        <v>1.06897233275</v>
+      </c>
+      <c r="W50" s="3">
+        <v>1.1806322731600001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="8">
         <f>10000000000</f>
         <v>10000000000</v>
@@ -12750,6 +17094,3485 @@
         <v>0.98542732307799996</v>
       </c>
       <c r="O51" s="3">
+        <v>6.7943895613600001</v>
+      </c>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="8">
+        <f>10000000000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="R51" s="8">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="8">
+        <v>0.94002605975300002</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0.85129994048000002</v>
+      </c>
+      <c r="V51" s="3">
+        <v>1.07728305614</v>
+      </c>
+      <c r="W51" s="3">
+        <v>1.1817377086700001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W51"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="21.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="21.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="23.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="21.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="3">
+        <v>57.93</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.4158328839700001</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.74018557023999998</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4.21</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.45253100826100001</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3.1157918824199999</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>77.95</v>
+      </c>
+      <c r="K2" s="3">
+        <v>18.18</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.5228874636</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.63750442046099998</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.68188169580000002</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2.4527660946099998</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>77.95</v>
+      </c>
+      <c r="S2" s="3">
+        <v>18.18</v>
+      </c>
+      <c r="T2" s="3">
+        <v>1.5228874636</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0.63750442046099998</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.68188169580000002</v>
+      </c>
+      <c r="W2" s="3">
+        <v>2.4527660946099998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.0980193221300001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.93909981998400005</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.694375477638</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.78714912979</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3">
+        <f>I2+1</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.31</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.25259681856</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.37311726525700001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.82686128237500001</v>
+      </c>
+      <c r="O3" s="3">
+        <v>4.9393303833099997</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="3">
+        <f>Q2+1</f>
+        <v>2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1.31</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1.25259681856</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.37311726525700001</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.82686128237500001</v>
+      </c>
+      <c r="W3" s="3">
+        <v>4.9393303833099997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.0242161839999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.99793954721199996</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.77188934264800002</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.46778826697</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I50" si="0">I3+1</f>
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.1510404674100001</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.28075008422499997</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.89186488701599997</v>
+      </c>
+      <c r="O4" s="3">
+        <v>5.6680504199700001</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4:Q50" si="1">Q3+1</f>
+        <v>3</v>
+      </c>
+      <c r="R4" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1.1510404674100001</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.28075008422499997</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.89186488701599997</v>
+      </c>
+      <c r="W4" s="3">
+        <v>5.6680504199700001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.99817263824900004</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.02000711197</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.80330883756899996</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.3511405909</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.11279570097</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.24274105068599999</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.91880819546500003</v>
+      </c>
+      <c r="O5" s="3">
+        <v>5.9860250623900004</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1.11279570097</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.24274105068599999</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.91880819546500003</v>
+      </c>
+      <c r="W5" s="3">
+        <v>5.9860250623900004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.98590285479399997</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.0320819408699999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.82072147974099996</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.2883425368999999</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.09149190934</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.222730387856</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.93521921502500005</v>
+      </c>
+      <c r="O6" s="3">
+        <v>6.19799847032</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1.09149190934</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.222730387856</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.93521921502500005</v>
+      </c>
+      <c r="W6" s="3">
+        <v>6.19799847032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.97514278100999996</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.0422121100199999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.82746271133500005</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.2638033504099999</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.0801816393999999</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.216412156705</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.94389929625400004</v>
+      </c>
+      <c r="O7" s="3">
+        <v>6.2753166451900002</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1.0801816393999999</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.216412156705</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.94389929625400004</v>
+      </c>
+      <c r="W7" s="3">
+        <v>6.2753166451900002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.971517395246</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.0458181265299999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.83588788033600003</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.2361902606099999</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.0679057273300001</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.205843045526</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.95327103478099995</v>
+      </c>
+      <c r="O8" s="3">
+        <v>6.4269615800000004</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1.0679057273300001</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.205843045526</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.95327103478099995</v>
+      </c>
+      <c r="W8" s="3">
+        <v>6.4269615800000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.96644103281100002</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.05048350098</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.83900573425299996</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.22513305631</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.06552098941</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.20260371552000001</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.95558223427300004</v>
+      </c>
+      <c r="O9" s="3">
+        <v>6.4299989841</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1.06552098941</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.20260371552000001</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.95558223427300004</v>
+      </c>
+      <c r="W9" s="3">
+        <v>6.4299989841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.96467920502299997</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.0525149878</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.84139208176000002</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.21758634069</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.0589787670699999</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.194815720069</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.96119047005500002</v>
+      </c>
+      <c r="O10" s="3">
+        <v>6.5271746245899998</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1.0589787670699999</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.194815720069</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0.96119047005500002</v>
+      </c>
+      <c r="W10" s="3">
+        <v>6.5271746245899998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="3">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.96126288698700002</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.0558045866400001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.84420593185500004</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.2091130028999999</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.05688108139</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.19488089279000001</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.96256997307699999</v>
+      </c>
+      <c r="O11" s="3">
+        <v>6.5612820571799997</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1.05688108139</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.19488089279000001</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0.96256997307699999</v>
+      </c>
+      <c r="W11" s="3">
+        <v>6.5612820571799997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.96078756219499994</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.05652360043</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.84427788949799998</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.20771963918</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.05356602656</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.193029176701</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.96564375698399996</v>
+      </c>
+      <c r="O12" s="3">
+        <v>6.5659412996100004</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1.05356602656</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.193029176701</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0.96564375698399996</v>
+      </c>
+      <c r="W12" s="3">
+        <v>6.5659412996100004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.95887569628900005</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.0579395059500001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.84440442802899995</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.20544810655</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.0530867635100001</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.18859480160600001</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.96549022484900004</v>
+      </c>
+      <c r="O13" s="3">
+        <v>6.5873018640599996</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1.0530867635100001</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.18859480160600001</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0.96549022484900004</v>
+      </c>
+      <c r="W13" s="3">
+        <v>6.5873018640599996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.95857382096900001</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.0584352616399999</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.84771664184200002</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.1983917093500001</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.0503989674500001</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.185104529071</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.96764621643600002</v>
+      </c>
+      <c r="O14" s="3">
+        <v>6.6402333768700004</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1.0503989674500001</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.185104529071</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0.96764621643600002</v>
+      </c>
+      <c r="W14" s="3">
+        <v>6.6402333768700004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.95564421293500001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.06163778415</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.848236489925</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.1958445984299999</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1.0487670014899999</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.188544434777</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.96897376198700003</v>
+      </c>
+      <c r="O15" s="3">
+        <v>6.6155353768499996</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1.0487670014899999</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.188544434777</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0.96897376198700003</v>
+      </c>
+      <c r="W15" s="3">
+        <v>6.6155353768499996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="3">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.95287778567799997</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.06452171325</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.84841964942799997</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.1934916744099999</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1.0462218378000001</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.18621533489799999</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.97129696696199996</v>
+      </c>
+      <c r="O16" s="3">
+        <v>6.63120379219</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1.0462218378000001</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.18621533489799999</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0.97129696696199996</v>
+      </c>
+      <c r="W16" s="3">
+        <v>6.63120379219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="3">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.95349581923899995</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.0633518660200001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.85030313345300002</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.18994290938</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1.0471711048600001</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.184363608613</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.97057687638900003</v>
+      </c>
+      <c r="O17" s="3">
+        <v>6.6435166435999999</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1.0471711048600001</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.184363608613</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0.97057687638900003</v>
+      </c>
+      <c r="W17" s="3">
+        <v>6.6435166435999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="3">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.952319194481</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.0648615430399999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.84867363727199996</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.19272146295</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1.0454207364400001</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.18475859246099999</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.97179311777599997</v>
+      </c>
+      <c r="O18" s="3">
+        <v>6.6653763249800004</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="3">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1.0454207364400001</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0.18475859246099999</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0.97179311777599997</v>
+      </c>
+      <c r="W18" s="3">
+        <v>6.6653763249800004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.95345864079800002</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.06394990079</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.84957665455099995</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.19058899857</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1.0443977718199999</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.18405682888700001</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.97317167275299998</v>
+      </c>
+      <c r="O19" s="3">
+        <v>6.6599843814300002</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1.0443977718199999</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0.18405682888700001</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0.97317167275299998</v>
+      </c>
+      <c r="W19" s="3">
+        <v>6.6599843814300002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="3">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.95011833051899997</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.06696817869</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.85078029472799999</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.1881000611500001</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1.04462066399</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.18174725739399999</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.97267517493900002</v>
+      </c>
+      <c r="O20" s="3">
+        <v>6.6953610660800003</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1.04462066399</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0.18174725739399999</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0.97267517493900002</v>
+      </c>
+      <c r="W20" s="3">
+        <v>6.6953610660800003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.95044893217000004</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.0665244652999999</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.85146166705000004</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.18678680119</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1.0427331771399999</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.18099428391899999</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.97458124537099999</v>
+      </c>
+      <c r="O21" s="3">
+        <v>6.6875688129600004</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>1.0427331771399999</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0.18099428391899999</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0.97458124537099999</v>
+      </c>
+      <c r="W21" s="3">
+        <v>6.6875688129600004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="3">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.95131771362600004</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1.0661018578899999</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.850922268343</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1.1875979236900001</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1.0414325865</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.18199515038799999</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.97539974405300001</v>
+      </c>
+      <c r="O22" s="3">
+        <v>6.6803018656199997</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>1.0414325865</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0.18199515038799999</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0.97539974405300001</v>
+      </c>
+      <c r="W22" s="3">
+        <v>6.6803018656199997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.95136199641100005</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1.06542226677</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.85127181617299996</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.18668106078</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1.0402982840599999</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.18425485552599999</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.97655820169200003</v>
+      </c>
+      <c r="O23" s="3">
+        <v>6.6643909420899998</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="3">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1.0402982840599999</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.18425485552599999</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0.97655820169200003</v>
+      </c>
+      <c r="W23" s="3">
+        <v>6.6643909420899998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="3">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.949585792584</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1.0675186596299999</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.85100319572500005</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.18736509952</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1.04059344735</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.182956547946</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.97641749104099995</v>
+      </c>
+      <c r="O24" s="3">
+        <v>6.6820042176900003</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="3">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1.04059344735</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0.182956547946</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0.97641749104099995</v>
+      </c>
+      <c r="W24" s="3">
+        <v>6.6820042176900003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="3">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.95135758883599997</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1.0656744414899999</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.85193425669699996</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.1847782687999999</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1.04444877001</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.185443425637</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.97279797735899998</v>
+      </c>
+      <c r="O25" s="3">
+        <v>6.6572486831699997</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1.04444877001</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0.185443425637</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0.97279797735899998</v>
+      </c>
+      <c r="W25" s="3">
+        <v>6.6572486831699997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="3">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.94991188995300002</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1.06728385632</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.85170905098899996</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.1849595563599999</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1.04179666042</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.18137419442700001</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.97515449018900002</v>
+      </c>
+      <c r="O26" s="3">
+        <v>6.70505458396</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>1.04179666042</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0.18137419442700001</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0.97515449018900002</v>
+      </c>
+      <c r="W26" s="3">
+        <v>6.70505458396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.95049822540899997</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1.0667745819100001</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.85207466145599997</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1.1841252151599999</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1.0401966848599999</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.18451073873099999</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.976703162028</v>
+      </c>
+      <c r="O27" s="3">
+        <v>6.6805426636899998</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="3">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>1.0401966848599999</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0.18451073873099999</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0.976703162028</v>
+      </c>
+      <c r="W27" s="3">
+        <v>6.6805426636899998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="3">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.94919891967299996</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1.0677906261800001</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.85186575366700001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1.18407068185</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1.04075764445</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.180607772035</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.97614061456199996</v>
+      </c>
+      <c r="O28" s="3">
+        <v>6.72254008151</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="3">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>1.04075764445</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0.180607772035</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0.97614061456199996</v>
+      </c>
+      <c r="W28" s="3">
+        <v>6.72254008151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="3">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.94764324173699999</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1.0694006836900001</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.85253249854599999</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1.1830341209699999</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1.04146889002</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.18235394491699999</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.97535573188299995</v>
+      </c>
+      <c r="O29" s="3">
+        <v>6.6976916112799998</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="3">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1.04146889002</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.18235394491699999</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0.97535573188299995</v>
+      </c>
+      <c r="W29" s="3">
+        <v>6.6976916112799998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.94929792126199997</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.0674956736300001</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.85191509721000003</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1.1838681226000001</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1.04156163642</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.180821358637</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.97551272554900004</v>
+      </c>
+      <c r="O30" s="3">
+        <v>6.7354358475499998</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="3">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>1.04156163642</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0.180821358637</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0.97551272554900004</v>
+      </c>
+      <c r="W30" s="3">
+        <v>6.7354358475499998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="3">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.94901452979199996</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1.0683123291900001</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.85119971399399996</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1.18515954892</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1.03872137047</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.179619934787</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.97798362273499995</v>
+      </c>
+      <c r="O31" s="3">
+        <v>6.7200119368299998</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>1.03872137047</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0.179619934787</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0.97798362273499995</v>
+      </c>
+      <c r="W31" s="3">
+        <v>6.7200119368299998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="3">
+        <v>0</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.94967227329199999</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1.06741080057</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.85221900963899999</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1.1833945774700001</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1.03647709283</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.178966463125</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.979615179896</v>
+      </c>
+      <c r="O32" s="3">
+        <v>6.7465741966900001</v>
+      </c>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="3">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>1.03647709283</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0.178966463125</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0.979615179896</v>
+      </c>
+      <c r="W32" s="3">
+        <v>6.7465741966900001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="3">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.94870732424299997</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1.0682328384199999</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.85276607973399998</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.1826365812399999</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1.0375611804</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.179946682173</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.97893101325800003</v>
+      </c>
+      <c r="O33" s="3">
+        <v>6.7177330027300002</v>
+      </c>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="3">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>1.0375611804</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0.179946682173</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0.97893101325800003</v>
+      </c>
+      <c r="W33" s="3">
+        <v>6.7177330027300002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="3">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.946119679193</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1.07121197467</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.85231660513499996</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1.1829373648299999</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1.03759373552</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.179456040771</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.97907960570399999</v>
+      </c>
+      <c r="O34" s="3">
+        <v>6.7237358398399998</v>
+      </c>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="3">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>1.03759373552</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0.179456040771</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0.97907960570399999</v>
+      </c>
+      <c r="W34" s="3">
+        <v>6.7237358398399998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="3">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.94661475174300003</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.0704525007200001</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.85297198560499998</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.1821465368199999</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1.04030622604</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.17972218224799999</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.97626722991100001</v>
+      </c>
+      <c r="O35" s="3">
+        <v>6.7446388492500002</v>
+      </c>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="3">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>1.04030622604</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0.17972218224799999</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0.97626722991100001</v>
+      </c>
+      <c r="W35" s="3">
+        <v>6.7446388492500002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="3">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.94512344348699995</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1.07243065753</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.85154161782899995</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1.18370010538</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1.03812265262</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.179615768413</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0.97815077459099997</v>
+      </c>
+      <c r="O36" s="3">
+        <v>6.7521448398099997</v>
+      </c>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="R36" s="3">
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3">
+        <v>1.03812265262</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0.179615768413</v>
+      </c>
+      <c r="V36" s="3">
+        <v>0.97815077459099997</v>
+      </c>
+      <c r="W36" s="3">
+        <v>6.7521448398099997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="3">
+        <v>0</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.94712763789200005</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1.06988483366</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.85182607385200004</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1.18334674368</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1.0380097150100001</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0.17896181450900001</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0.97837246608799999</v>
+      </c>
+      <c r="O37" s="3">
+        <v>6.74537991521</v>
+      </c>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="3">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
+        <v>1.0380097150100001</v>
+      </c>
+      <c r="U37" s="3">
+        <v>0.17896181450900001</v>
+      </c>
+      <c r="V37" s="3">
+        <v>0.97837246608799999</v>
+      </c>
+      <c r="W37" s="3">
+        <v>6.74537991521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="3">
+        <v>0</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.94708871373900005</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1.07022348605</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.85255077845500005</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1.1823616801500001</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1.03851656665</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.18133541391899999</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.97842702619199995</v>
+      </c>
+      <c r="O38" s="3">
+        <v>6.7237431242200003</v>
+      </c>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="3">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0</v>
+      </c>
+      <c r="S38" s="3">
+        <v>0</v>
+      </c>
+      <c r="T38" s="3">
+        <v>1.03851656665</v>
+      </c>
+      <c r="U38" s="3">
+        <v>0.18133541391899999</v>
+      </c>
+      <c r="V38" s="3">
+        <v>0.97842702619199995</v>
+      </c>
+      <c r="W38" s="3">
+        <v>6.7237431242200003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="3">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.94716959624999997</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1.06999463498</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.85226608917699997</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1.18246406178</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1.0389744105800001</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0.17938675330600001</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.97737154725700004</v>
+      </c>
+      <c r="O39" s="3">
+        <v>6.7494202697299999</v>
+      </c>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="3">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="R39" s="3">
+        <v>0</v>
+      </c>
+      <c r="S39" s="3">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3">
+        <v>1.0389744105800001</v>
+      </c>
+      <c r="U39" s="3">
+        <v>0.17938675330600001</v>
+      </c>
+      <c r="V39" s="3">
+        <v>0.97737154725700004</v>
+      </c>
+      <c r="W39" s="3">
+        <v>6.7494202697299999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="3">
+        <v>0</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.94694467415700001</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1.07045154704</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.85122864226200001</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1.1837109539299999</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1.0389488941</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.17922910649099999</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.97763309331000003</v>
+      </c>
+      <c r="O40" s="3">
+        <v>6.7386417518600004</v>
+      </c>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="3">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="R40" s="3">
+        <v>0</v>
+      </c>
+      <c r="S40" s="3">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3">
+        <v>1.0389488941</v>
+      </c>
+      <c r="U40" s="3">
+        <v>0.17922910649099999</v>
+      </c>
+      <c r="V40" s="3">
+        <v>0.97763309331000003</v>
+      </c>
+      <c r="W40" s="3">
+        <v>6.7386417518600004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="3">
+        <v>0</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.947268375128</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1.06977711777</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.85136402407099998</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1.18313969825</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1.03619763808</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.179040284918</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.98013467984299996</v>
+      </c>
+      <c r="O41" s="3">
+        <v>6.7200509965800004</v>
+      </c>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>1.03619763808</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0.179040284918</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0.98013467984299996</v>
+      </c>
+      <c r="W41" s="3">
+        <v>6.7200509965800004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="3">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.94703528263299996</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1.0702001400700001</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.85208074811000001</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1.18244374496</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1.03776530217</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.17933973667200001</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0.97841396171899997</v>
+      </c>
+      <c r="O42" s="3">
+        <v>6.7384609076200004</v>
+      </c>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="3">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>1.03776530217</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0.17933973667200001</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0.97841396171899997</v>
+      </c>
+      <c r="W42" s="3">
+        <v>6.7384609076200004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="3">
+        <v>0</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.94606242727199996</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1.0713515415199999</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.85313007142700004</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1.18044506503</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1.0338226044800001</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0.17861803558799999</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0.98229560284700002</v>
+      </c>
+      <c r="O43" s="3">
+        <v>6.7587338160200003</v>
+      </c>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="3">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1.0338226044800001</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0.17861803558799999</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0.98229560284700002</v>
+      </c>
+      <c r="W43" s="3">
+        <v>6.7587338160200003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="3">
+        <v>0</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.94704975076800002</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1.07013122105</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.85281385046900005</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1.18128193348</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1.0364831248399999</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.17808586901699999</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.97975429148000004</v>
+      </c>
+      <c r="O44" s="3">
+        <v>6.7511749896</v>
+      </c>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="3">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1.0364831248399999</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0.17808586901699999</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0.97975429148000004</v>
+      </c>
+      <c r="W44" s="3">
+        <v>6.7511749896</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="3">
+        <v>0</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.94608474983199997</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1.07136402738</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.85289693723500004</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1.1807425890700001</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1.0352485256899999</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.17602393607</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.98093140125400002</v>
+      </c>
+      <c r="O45" s="3">
+        <v>6.7720141732899997</v>
+      </c>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="3">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>1.0352485256899999</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0.17602393607</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0.98093140125400002</v>
+      </c>
+      <c r="W45" s="3">
+        <v>6.7720141732899997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="3">
+        <v>0</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.94743364289400001</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1.0698468861499999</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.85343037067399996</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1.1805320240599999</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1.035525142</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.17658980280600001</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.98066756882100004</v>
+      </c>
+      <c r="O46" s="3">
+        <v>6.7523596476099996</v>
+      </c>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>1.035525142</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0.17658980280600001</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0.98066756882100004</v>
+      </c>
+      <c r="W46" s="3">
+        <v>6.7523596476099996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="3">
+        <v>0</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.94769115657400005</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1.06938641928</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.85252941568100005</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1.18201740995</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="3">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1.03520962427</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0.177000571813</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0.98100467046100004</v>
+      </c>
+      <c r="O47" s="3">
+        <v>6.7657728662599999</v>
+      </c>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="3">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>1.03520962427</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0.177000571813</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0.98100467046100004</v>
+      </c>
+      <c r="W47" s="3">
+        <v>6.7657728662599999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="3">
+        <v>0</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.94738349325399995</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1.0696563913199999</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.85246350258000003</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1.18154245282</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="3">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1.0365618940200001</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0.17791034288400001</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.97986151077299999</v>
+      </c>
+      <c r="O48" s="3">
+        <v>6.7403722789499998</v>
+      </c>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="3">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>1.0365618940200001</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0.17791034288400001</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0.97986151077299999</v>
+      </c>
+      <c r="W48" s="3">
+        <v>6.7403722789499998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" s="3">
+        <v>0</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.94320704092899998</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1.07396588164</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.85319370191199995</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1.1802237872800001</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1.03692440283</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0.17774018988599999</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0.97909623882600005</v>
+      </c>
+      <c r="O49" s="3">
+        <v>6.7849950240299997</v>
+      </c>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="3">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>1.03692440283</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0.17774018988599999</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0.97909623882600005</v>
+      </c>
+      <c r="W49" s="3">
+        <v>6.7849950240299997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" s="3">
+        <v>0</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.94820118132599995</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1.06897233275</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.85299261217199995</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1.1806322731600001</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1.0333861715999999</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0.17642417929699999</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.98264191853100002</v>
+      </c>
+      <c r="O50" s="3">
+        <v>6.76401817109</v>
+      </c>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="3">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>1.0333861715999999</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0.17642417929699999</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0.98264191853100002</v>
+      </c>
+      <c r="W50" s="3">
+        <v>6.76401817109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" s="8">
+        <v>0</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.94002605975300002</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1.07728305614</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.85129994048000002</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1.1817377086700001</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="8">
+        <f>10000000000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1.0302574260599999</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0.17336141565400001</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0.98542732307799996</v>
+      </c>
+      <c r="O51" s="3">
+        <v>6.7943895613600001</v>
+      </c>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="8">
+        <f>10000000000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="8">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>1.0302574260599999</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0.17336141565400001</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0.98542732307799996</v>
+      </c>
+      <c r="W51" s="3">
         <v>6.7943895613600001</v>
       </c>
     </row>

--- a/Cache_User_Simulations/ResultsCharts.xlsx
+++ b/Cache_User_Simulations/ResultsCharts.xlsx
@@ -1526,11 +1526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2073124920"/>
-        <c:axId val="2073115768"/>
+        <c:axId val="2064263816"/>
+        <c:axId val="2064272856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2073124920"/>
+        <c:axId val="2064263816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,7 +1588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073115768"/>
+        <c:crossAx val="2064272856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1596,7 +1596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073115768"/>
+        <c:axId val="2064272856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,7 +1651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073124920"/>
+        <c:crossAx val="2064263816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2072,11 +2072,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2073040568"/>
-        <c:axId val="2076660216"/>
+        <c:axId val="2064369016"/>
+        <c:axId val="2064376536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2073040568"/>
+        <c:axId val="2064369016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,7 +2134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076660216"/>
+        <c:crossAx val="2064376536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2142,7 +2142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2076660216"/>
+        <c:axId val="2064376536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,7 +2201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073040568"/>
+        <c:crossAx val="2064369016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3598,11 +3598,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2074723928"/>
-        <c:axId val="2074731688"/>
+        <c:axId val="2064423624"/>
+        <c:axId val="2064431400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2074723928"/>
+        <c:axId val="2064423624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.75"/>
@@ -3659,12 +3659,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2074731688"/>
+        <c:crossAx val="2064431400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2074731688"/>
+        <c:axId val="2064431400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3733,7 +3733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2074723928"/>
+        <c:crossAx val="2064423624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3809,7 +3809,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6383,11 +6382,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2074851320"/>
-        <c:axId val="2074859064"/>
+        <c:axId val="2089812968"/>
+        <c:axId val="2093054296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2074851320"/>
+        <c:axId val="2089812968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.6"/>
@@ -6444,12 +6443,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2074859064"/>
+        <c:crossAx val="2093054296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2074859064"/>
+        <c:axId val="2093054296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -6518,7 +6517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2074851320"/>
+        <c:crossAx val="2089812968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7347,11 +7346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2074914296"/>
-        <c:axId val="2074922568"/>
+        <c:axId val="2093109528"/>
+        <c:axId val="2093117800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2074914296"/>
+        <c:axId val="2093109528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -7407,12 +7406,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2074922568"/>
+        <c:crossAx val="2093117800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2074922568"/>
+        <c:axId val="2093117800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7479,7 +7478,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2074914296"/>
+        <c:crossAx val="2093109528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8643,11 +8642,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082604920"/>
-        <c:axId val="2082597288"/>
+        <c:axId val="2093185832"/>
+        <c:axId val="2093194584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082604920"/>
+        <c:axId val="2093185832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.4"/>
@@ -8704,12 +8703,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082597288"/>
+        <c:crossAx val="2093194584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2082597288"/>
+        <c:axId val="2093194584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -8777,7 +8776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082604920"/>
+        <c:crossAx val="2093185832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -24422,7 +24421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -26935,8 +26934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B30" sqref="B29:B30"/>
+    <sheetView tabSelected="1" topLeftCell="I45" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Cache_User_Simulations/ResultsCharts.xlsx
+++ b/Cache_User_Simulations/ResultsCharts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Connectivity" sheetId="1" r:id="rId1"/>
@@ -843,6 +843,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,7 +862,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="490">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1741,11 +1741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2092261352"/>
-        <c:axId val="2092252248"/>
+        <c:axId val="2084015336"/>
+        <c:axId val="2084021320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2092261352"/>
+        <c:axId val="2084015336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,7 +1804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092252248"/>
+        <c:crossAx val="2084021320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1812,7 +1812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2092252248"/>
+        <c:axId val="2084021320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,7 +1868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092261352"/>
+        <c:crossAx val="2084015336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1950,7 +1950,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2291,11 +2290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2103316648"/>
-        <c:axId val="2103092360"/>
+        <c:axId val="2085001192"/>
+        <c:axId val="2085008952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2103316648"/>
+        <c:axId val="2085001192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2334,7 +2333,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2354,7 +2352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103092360"/>
+        <c:crossAx val="2085008952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2362,7 +2360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2103092360"/>
+        <c:axId val="2085008952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,7 +2400,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2422,7 +2419,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103316648"/>
+        <c:crossAx val="2085001192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2508,7 +2505,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5082,11 +5078,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2097357032"/>
-        <c:axId val="2101353144"/>
+        <c:axId val="2085081880"/>
+        <c:axId val="2085089624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2097357032"/>
+        <c:axId val="2085081880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.6"/>
@@ -5143,12 +5139,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101353144"/>
+        <c:crossAx val="2085089624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2101353144"/>
+        <c:axId val="2085089624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -5217,7 +5213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097357032"/>
+        <c:crossAx val="2085081880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5303,7 +5299,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6381,11 +6376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2104280696"/>
-        <c:axId val="2107735880"/>
+        <c:axId val="2085130536"/>
+        <c:axId val="2085139240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2104280696"/>
+        <c:axId val="2085130536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.4"/>
@@ -6442,12 +6437,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107735880"/>
+        <c:crossAx val="2085139240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107735880"/>
+        <c:axId val="2085139240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -6515,7 +6510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104280696"/>
+        <c:crossAx val="2085130536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6601,7 +6596,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7679,11 +7673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2106000072"/>
-        <c:axId val="2103620504"/>
+        <c:axId val="2085187672"/>
+        <c:axId val="2085196280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2106000072"/>
+        <c:axId val="2085187672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95"/>
@@ -7740,12 +7734,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103620504"/>
+        <c:crossAx val="2085196280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2103620504"/>
+        <c:axId val="2085196280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7812,7 +7806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106000072"/>
+        <c:crossAx val="2085187672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7914,7 +7908,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8641,11 +8634,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115380296"/>
-        <c:axId val="2115388632"/>
+        <c:axId val="2085238216"/>
+        <c:axId val="2085246472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115380296"/>
+        <c:axId val="2085238216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -8702,12 +8695,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115388632"/>
+        <c:crossAx val="2085246472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115388632"/>
+        <c:axId val="2085246472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8774,7 +8767,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115380296"/>
+        <c:crossAx val="2085238216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8876,7 +8869,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9603,11 +9595,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2117186200"/>
-        <c:axId val="2101615816"/>
+        <c:axId val="2085288872"/>
+        <c:axId val="2085297128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2117186200"/>
+        <c:axId val="2085288872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9662,12 +9654,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101615816"/>
+        <c:crossAx val="2085297128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2101615816"/>
+        <c:axId val="2085297128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9734,7 +9726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117186200"/>
+        <c:crossAx val="2085288872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10166,11 +10158,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2092177512"/>
-        <c:axId val="2092169944"/>
+        <c:axId val="2084117448"/>
+        <c:axId val="2084124968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2092177512"/>
+        <c:axId val="2084117448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10229,7 +10221,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092169944"/>
+        <c:crossAx val="2084124968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10237,7 +10229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2092169944"/>
+        <c:axId val="2084124968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10297,7 +10289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092177512"/>
+        <c:crossAx val="2084117448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11695,11 +11687,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2092124472"/>
-        <c:axId val="2092116632"/>
+        <c:axId val="2084172040"/>
+        <c:axId val="2084179800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2092124472"/>
+        <c:axId val="2084172040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.75"/>
@@ -11756,12 +11748,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092116632"/>
+        <c:crossAx val="2084179800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2092116632"/>
+        <c:axId val="2084179800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -11830,7 +11822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092124472"/>
+        <c:crossAx val="2084172040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14481,11 +14473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2092013080"/>
-        <c:axId val="2092005544"/>
+        <c:axId val="2084600952"/>
+        <c:axId val="2084608696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2092013080"/>
+        <c:axId val="2084600952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.6"/>
@@ -14542,12 +14534,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092005544"/>
+        <c:crossAx val="2084608696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2092005544"/>
+        <c:axId val="2084608696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -14616,7 +14608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092013080"/>
+        <c:crossAx val="2084600952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15780,11 +15772,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2091943752"/>
-        <c:axId val="2091935176"/>
+        <c:axId val="2084648696"/>
+        <c:axId val="2084657400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2091943752"/>
+        <c:axId val="2084648696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.4"/>
@@ -15841,12 +15833,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091935176"/>
+        <c:crossAx val="2084657400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2091935176"/>
+        <c:axId val="2084657400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -15914,7 +15906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091943752"/>
+        <c:crossAx val="2084648696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17078,11 +17070,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2093392792"/>
-        <c:axId val="2093401416"/>
+        <c:axId val="2084735464"/>
+        <c:axId val="2084744088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2093392792"/>
+        <c:axId val="2084735464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95"/>
@@ -17139,12 +17131,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093401416"/>
+        <c:crossAx val="2084744088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2093401416"/>
+        <c:axId val="2084744088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17211,7 +17203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093392792"/>
+        <c:crossAx val="2084735464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18040,11 +18032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113376808"/>
-        <c:axId val="2102975656"/>
+        <c:axId val="2084805016"/>
+        <c:axId val="2084813272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113376808"/>
+        <c:axId val="2084805016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18099,12 +18091,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102975656"/>
+        <c:crossAx val="2084813272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102975656"/>
+        <c:axId val="2084813272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18171,7 +18163,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113376808"/>
+        <c:crossAx val="2084805016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19000,11 +18992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2093461864"/>
-        <c:axId val="2093470168"/>
+        <c:axId val="2084873592"/>
+        <c:axId val="2084881848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2093461864"/>
+        <c:axId val="2084873592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -19061,12 +19053,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093470168"/>
+        <c:crossAx val="2084881848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2093470168"/>
+        <c:axId val="2084881848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19133,7 +19125,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093461864"/>
+        <c:crossAx val="2084873592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19221,7 +19213,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -19558,11 +19549,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2065837256"/>
-        <c:axId val="2065845272"/>
+        <c:axId val="2084950856"/>
+        <c:axId val="2084958728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2065837256"/>
+        <c:axId val="2084950856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19601,7 +19592,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -19621,7 +19611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2065845272"/>
+        <c:crossAx val="2084958728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19629,7 +19619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2065845272"/>
+        <c:axId val="2084958728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19665,7 +19655,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -19685,14 +19674,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2065837256"/>
+        <c:crossAx val="2084950856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -21191,15 +21179,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>93662</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23240,8 +23228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23251,13 +23239,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -23548,13 +23536,13 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
@@ -23785,17 +23773,17 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="29"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
@@ -28631,7 +28619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI77"/>
   <sheetViews>
-    <sheetView topLeftCell="J38" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J53" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="U70" sqref="U70"/>
     </sheetView>
   </sheetViews>
@@ -28689,81 +28677,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
       <c r="P1" s="13"/>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
       <c r="X1" s="13"/>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
       <c r="AF1" s="13"/>
-      <c r="AG1" s="31" t="s">
+      <c r="AG1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
       <c r="AN1" s="13"/>
-      <c r="AO1" s="31" t="s">
+      <c r="AO1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32"/>
       <c r="AV1" s="13"/>
-      <c r="AW1" s="31" t="s">
+      <c r="AW1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="32"/>
+      <c r="BB1" s="32"/>
+      <c r="BC1" s="32"/>
       <c r="BD1" s="13"/>
       <c r="BF1" s="13"/>
-      <c r="BG1" s="30" t="s">
+      <c r="BG1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="BH1" s="30"/>
+      <c r="BH1" s="31"/>
       <c r="BI1" s="13"/>
     </row>
     <row r="2" spans="1:61">
@@ -37332,7 +37320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView topLeftCell="J53" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="J52" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
@@ -37362,35 +37350,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
       <c r="P1" s="13"/>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
       <c r="X1" s="13"/>
     </row>
     <row r="2" spans="1:24">
@@ -41034,7 +41022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView topLeftCell="I57" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="I54" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
@@ -41061,15 +41049,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="13"/>
       <c r="I1" s="25" t="s">
         <v>19</v>
@@ -44731,8 +44719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView topLeftCell="B54" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1"/>
+    <sheetView topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -44752,25 +44740,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
       <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16">
@@ -47242,8 +47230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A54" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -47263,25 +47251,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
       <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16">
@@ -49759,7 +49747,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="32"/>
+    <col min="1" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
